--- a/src/attributions/attributions_ig_traj_447.xlsx
+++ b/src/attributions/attributions_ig_traj_447.xlsx
@@ -1004,10 +1004,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1031,10 +1031,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -1058,10 +1058,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM2" t="n">
         <v>0</v>
@@ -1139,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
@@ -1166,10 +1166,10 @@
         <v>0</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE2" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN2" t="n">
         <v>0</v>
@@ -1220,10 +1220,10 @@
         <v>0</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW2" t="n">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF2" t="n">
         <v>0</v>
@@ -1274,10 +1274,10 @@
         <v>0</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO2" t="n">
         <v>0</v>
@@ -1328,10 +1328,10 @@
         <v>0</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG2" t="n">
         <v>0</v>
@@ -1355,10 +1355,10 @@
         <v>0</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP2" t="n">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY2" t="n">
         <v>0</v>
@@ -1409,10 +1409,10 @@
         <v>0</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH2" t="n">
         <v>0</v>
@@ -1436,10 +1436,10 @@
         <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ2" t="n">
         <v>0</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ2" t="n">
         <v>0</v>
@@ -1517,10 +1517,10 @@
         <v>0</v>
       </c>
       <c r="FP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR2" t="n">
         <v>0</v>
@@ -1573,76 +1573,76 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1226816048852998</v>
+        <v>-0.06157625662724026</v>
       </c>
       <c r="B3" t="n">
-        <v>-0</v>
+        <v>0.5644501087041566</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.05564192129883305</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06456554775940851</v>
+        <v>-0.08694139527071784</v>
       </c>
       <c r="F3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1302504929522456</v>
+        <v>-0.1216112570057942</v>
       </c>
       <c r="K3" t="n">
-        <v>-0</v>
+        <v>0.5491443245379437</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.08967930850293898</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01260111225142023</v>
+        <v>-0.1355687296766043</v>
       </c>
       <c r="O3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.0009392226969981887</v>
+        <v>0.0536333022918455</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>0.3002640523613211</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.1066229054975564</v>
+        <v>-0</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.06734128640683383</v>
+        <v>0.3337129035075903</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -1654,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.0372570781559968</v>
+        <v>0.1601902613830842</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>0.1960427520269183</v>
       </c>
       <c r="AD3" t="n">
         <v>-0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.1269797799450088</v>
+        <v>-0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.08795422829767147</v>
+        <v>-0.2333231897710611</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
@@ -1675,136 +1675,136 @@
         <v>-0</v>
       </c>
       <c r="AI3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
         <v>-0</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.1067105884100432</v>
+        <v>-0.1152840285931514</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>0.1817539208135134</v>
       </c>
       <c r="AM3" t="n">
         <v>-0</v>
       </c>
       <c r="AN3" t="n">
-        <v>-0.0465708733301721</v>
+        <v>-0</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.02253486794269467</v>
+        <v>0.142478541566331</v>
       </c>
       <c r="AP3" t="n">
         <v>0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS3" t="n">
         <v>0</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.1460211928612571</v>
+        <v>0.07275988669018189</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>0.8087004303775692</v>
       </c>
       <c r="AV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW3" t="n">
-        <v>-0.00993289876336188</v>
+        <v>-0</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.04296463807918106</v>
+        <v>0.4949979815533078</v>
       </c>
       <c r="AY3" t="n">
         <v>0</v>
       </c>
       <c r="AZ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA3" t="n">
         <v>-0</v>
       </c>
       <c r="BB3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.04568191334056036</v>
+        <v>-0.0182179697787901</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>0.03985558845208506</v>
       </c>
       <c r="BE3" t="n">
         <v>0</v>
       </c>
       <c r="BF3" t="n">
-        <v>-0.03229066517968289</v>
+        <v>0</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.0322467489693944</v>
+        <v>-0.2302974974118596</v>
       </c>
       <c r="BH3" t="n">
         <v>0</v>
       </c>
       <c r="BI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ3" t="n">
         <v>0</v>
       </c>
       <c r="BK3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL3" t="n">
-        <v>-0.02978617541073495</v>
+        <v>0.01736736983066244</v>
       </c>
       <c r="BM3" t="n">
-        <v>0</v>
+        <v>-0.1438997686973183</v>
       </c>
       <c r="BN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO3" t="n">
-        <v>-0.07674905904257594</v>
+        <v>-0</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.005617193196348656</v>
+        <v>0.169317199136851</v>
       </c>
       <c r="BQ3" t="n">
         <v>-0</v>
       </c>
       <c r="BR3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT3" t="n">
         <v>-0</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.1515503638053575</v>
+        <v>0.07128635021337223</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>0.4326706536690318</v>
       </c>
       <c r="BW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX3" t="n">
-        <v>-0.01812459415468108</v>
+        <v>-0</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.03870086798615817</v>
+        <v>0.2319054719852899</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA3" t="n">
         <v>0</v>
@@ -1813,55 +1813,55 @@
         <v>-0</v>
       </c>
       <c r="CC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD3" t="n">
-        <v>-0.05655305448942246</v>
+        <v>0.005577095920974423</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0.2391132965217062</v>
       </c>
       <c r="CF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.009330810243331624</v>
+        <v>-0</v>
       </c>
       <c r="CH3" t="n">
-        <v>-0.04902450706364626</v>
+        <v>-0.01966243981919247</v>
       </c>
       <c r="CI3" t="n">
         <v>0</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL3" t="n">
         <v>-0</v>
       </c>
       <c r="CM3" t="n">
-        <v>-0.04888079323516222</v>
+        <v>-0.1500109630489651</v>
       </c>
       <c r="CN3" t="n">
-        <v>-0</v>
+        <v>-0.03450646788689741</v>
       </c>
       <c r="CO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP3" t="n">
-        <v>-0.01490262600696198</v>
+        <v>0</v>
       </c>
       <c r="CQ3" t="n">
-        <v>-0.04137229628926773</v>
+        <v>-0.2258093079942325</v>
       </c>
       <c r="CR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT3" t="n">
         <v>-0</v>
@@ -1870,46 +1870,46 @@
         <v>0</v>
       </c>
       <c r="CV3" t="n">
-        <v>-0.05669186061484758</v>
+        <v>-0.004572385870167298</v>
       </c>
       <c r="CW3" t="n">
-        <v>-0</v>
+        <v>-0.2460990710162006</v>
       </c>
       <c r="CX3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.007213522375785007</v>
+        <v>0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>-0.07081507346358593</v>
+        <v>-0.02186019571078159</v>
       </c>
       <c r="DA3" t="n">
         <v>-0</v>
       </c>
       <c r="DB3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD3" t="n">
         <v>0</v>
       </c>
       <c r="DE3" t="n">
-        <v>-0.006809944879794411</v>
+        <v>-0.02871426572657681</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0.1729307579225279</v>
       </c>
       <c r="DG3" t="n">
         <v>-0</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.02355682229632585</v>
+        <v>0</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.05062641017861224</v>
+        <v>0.04954100520795113</v>
       </c>
       <c r="DJ3" t="n">
         <v>-0</v>
@@ -1918,31 +1918,31 @@
         <v>-0</v>
       </c>
       <c r="DL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.01412925302303853</v>
+        <v>0.05419797970864702</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>-0.1204384242310453</v>
       </c>
       <c r="DP3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>-0.04655564966682963</v>
+        <v>-0</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.04842205276161322</v>
+        <v>-0.1551699300234854</v>
       </c>
       <c r="DS3" t="n">
         <v>-0</v>
       </c>
       <c r="DT3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU3" t="n">
         <v>0</v>
@@ -1951,19 +1951,19 @@
         <v>-0</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.003126046669802953</v>
+        <v>-0.01459797722949796</v>
       </c>
       <c r="DX3" t="n">
-        <v>-0</v>
+        <v>-0.3075748980504927</v>
       </c>
       <c r="DY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ3" t="n">
-        <v>-0.0389889546875589</v>
+        <v>0</v>
       </c>
       <c r="EA3" t="n">
-        <v>-0.03750125343970554</v>
+        <v>-0.05160747350197604</v>
       </c>
       <c r="EB3" t="n">
         <v>0</v>
@@ -1975,103 +1975,103 @@
         <v>-0</v>
       </c>
       <c r="EE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF3" t="n">
-        <v>-0.1201862967730834</v>
+        <v>-0.03250237987252422</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0.09999737877382915</v>
       </c>
       <c r="EH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.01876461227981022</v>
+        <v>0</v>
       </c>
       <c r="EJ3" t="n">
-        <v>-0.01826047526450986</v>
+        <v>0.1355628779912084</v>
       </c>
       <c r="EK3" t="n">
         <v>0</v>
       </c>
       <c r="EL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN3" t="n">
         <v>-0</v>
       </c>
       <c r="EO3" t="n">
-        <v>-0.02637217196769899</v>
+        <v>-0.005958738348511286</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0.2654285383757937</v>
       </c>
       <c r="EQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER3" t="n">
-        <v>-0.05495337031556075</v>
+        <v>-0</v>
       </c>
       <c r="ES3" t="n">
-        <v>-0.02089671581739632</v>
+        <v>-0.06736087727164236</v>
       </c>
       <c r="ET3" t="n">
         <v>-0</v>
       </c>
       <c r="EU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX3" t="n">
-        <v>-0.06390156298638688</v>
+        <v>-0.04665858150971016</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0.2651695771882489</v>
       </c>
       <c r="EZ3" t="n">
         <v>-0</v>
       </c>
       <c r="FA3" t="n">
-        <v>-0.004500443138473293</v>
+        <v>-0</v>
       </c>
       <c r="FB3" t="n">
-        <v>-0.05530089508962773</v>
+        <v>-0.04901002784469745</v>
       </c>
       <c r="FC3" t="n">
         <v>0</v>
       </c>
       <c r="FD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF3" t="n">
         <v>0</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.05552278897560354</v>
+        <v>0.03689905729257257</v>
       </c>
       <c r="FH3" t="n">
-        <v>0</v>
+        <v>-0.0734951836973152</v>
       </c>
       <c r="FI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.06487801130406676</v>
+        <v>-0</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.1073691157690878</v>
+        <v>-0.0748368957775964</v>
       </c>
       <c r="FL3" t="n">
         <v>0</v>
@@ -2086,66 +2086,66 @@
         <v>0</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.05855691391486883</v>
+        <v>-0.07394288924975767</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0</v>
+        <v>-0.2240361187519963</v>
       </c>
       <c r="FR3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.05064507811691021</v>
+        <v>-0</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.01779236205462232</v>
+        <v>-0.1352124642726351</v>
       </c>
       <c r="FU3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV3" t="n">
         <v>-0</v>
       </c>
       <c r="FW3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.06480963443083976</v>
+        <v>-0.1380909247310741</v>
       </c>
       <c r="FZ3" t="n">
-        <v>-0</v>
+        <v>-0.1343931660454377</v>
       </c>
       <c r="GA3" t="n">
         <v>-0</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.0578426712513283</v>
+        <v>-0</v>
       </c>
       <c r="GC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF3" t="n">
         <v>-0</v>
       </c>
       <c r="GG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -2169,10 +2169,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -2196,10 +2196,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM4" t="n">
         <v>0</v>
@@ -2277,10 +2277,10 @@
         <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV4" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE4" t="n">
         <v>0</v>
@@ -2331,10 +2331,10 @@
         <v>0</v>
       </c>
       <c r="BL4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN4" t="n">
         <v>0</v>
@@ -2358,10 +2358,10 @@
         <v>0</v>
       </c>
       <c r="BU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW4" t="n">
         <v>0</v>
@@ -2385,10 +2385,10 @@
         <v>0</v>
       </c>
       <c r="CD4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF4" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="CM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO4" t="n">
         <v>0</v>
@@ -2466,10 +2466,10 @@
         <v>0</v>
       </c>
       <c r="DE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG4" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="DN4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP4" t="n">
         <v>0</v>
@@ -2520,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="DW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY4" t="n">
         <v>0</v>
@@ -2547,10 +2547,10 @@
         <v>0</v>
       </c>
       <c r="EF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH4" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="EO4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ4" t="n">
         <v>0</v>
@@ -2601,10 +2601,10 @@
         <v>0</v>
       </c>
       <c r="EX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ4" t="n">
         <v>0</v>
@@ -2655,10 +2655,10 @@
         <v>0</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR4" t="n">
         <v>0</v>
@@ -2711,25 +2711,25 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.1597709406947667</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>-0</v>
+        <v>0.4664181600281113</v>
       </c>
       <c r="C5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>-0.1215801486489472</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.0463088657396476</v>
+        <v>-0.01118516738148109</v>
       </c>
       <c r="F5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06704637226135716</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>-0</v>
@@ -2738,25 +2738,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1523539218366609</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>-0</v>
+        <v>0.3663772425422845</v>
       </c>
       <c r="L5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>-0.192119930455531</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.08723759849287119</v>
+        <v>-0.06883368743581604</v>
       </c>
       <c r="O5" t="n">
         <v>-0</v>
       </c>
       <c r="P5" t="n">
-        <v>0.05778513716685021</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -2765,25 +2765,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.02958567392149667</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.1810060130624193</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>-0.0009711015904963288</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.0470561407564293</v>
+        <v>0.05934406775138831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.06575486433112163</v>
+        <v>-0</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
@@ -2792,52 +2792,52 @@
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.05189633850564247</v>
+        <v>-0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>0.1480502544904574</v>
       </c>
       <c r="AD5" t="n">
         <v>-0</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0</v>
+        <v>-0.02204142983428598</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.07248226199198876</v>
+        <v>-0.05043152116222669</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.04730051085630252</v>
+        <v>-0</v>
       </c>
       <c r="AI5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="n">
         <v>-0</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.04670970933113892</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>-0</v>
+        <v>0.02026158519963714</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN5" t="n">
-        <v>-0</v>
+        <v>-0.1005185086958257</v>
       </c>
       <c r="AO5" t="n">
-        <v>-0.03514879702859747</v>
+        <v>-0.08711789924766952</v>
       </c>
       <c r="AP5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.01623619615151326</v>
+        <v>-0</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2846,52 +2846,52 @@
         <v>0</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.1603544016375868</v>
+        <v>0</v>
       </c>
       <c r="AU5" t="n">
-        <v>-0</v>
+        <v>0.5034689717205131</v>
       </c>
       <c r="AV5" t="n">
         <v>-0</v>
       </c>
       <c r="AW5" t="n">
-        <v>-0</v>
+        <v>0.009442294190010404</v>
       </c>
       <c r="AX5" t="n">
-        <v>-0.008038638035599711</v>
+        <v>0.2451817067021604</v>
       </c>
       <c r="AY5" t="n">
         <v>0</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.09032129562556621</v>
+        <v>0</v>
       </c>
       <c r="BA5" t="n">
         <v>-0</v>
       </c>
       <c r="BB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.03924634505358134</v>
+        <v>-0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>0.07022810203517374</v>
       </c>
       <c r="BE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>0</v>
+        <v>-0.09535246756986654</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.001765097532432673</v>
+        <v>-0.144902088929586</v>
       </c>
       <c r="BH5" t="n">
         <v>-0</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.02457879486889049</v>
+        <v>0</v>
       </c>
       <c r="BJ5" t="n">
         <v>0</v>
@@ -2900,79 +2900,79 @@
         <v>0</v>
       </c>
       <c r="BL5" t="n">
-        <v>-0.02112670670415119</v>
+        <v>-0</v>
       </c>
       <c r="BM5" t="n">
-        <v>0</v>
+        <v>0.0547674195590135</v>
       </c>
       <c r="BN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO5" t="n">
-        <v>0</v>
+        <v>1.752852295790391e-10</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.08487869262238146</v>
+        <v>0.2274649136150749</v>
       </c>
       <c r="BQ5" t="n">
         <v>-0</v>
       </c>
       <c r="BR5" t="n">
-        <v>1.155868043070316e-11</v>
+        <v>-0</v>
       </c>
       <c r="BS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT5" t="n">
         <v>-0</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.09203617442553765</v>
+        <v>0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>0.2594452133519254</v>
       </c>
       <c r="BW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>-0</v>
+        <v>0.01856581642885704</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.005285527216755375</v>
+        <v>0.0850269006658953</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.0451164911832872</v>
+        <v>-0</v>
       </c>
       <c r="CB5" t="n">
         <v>-0</v>
       </c>
       <c r="CC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD5" t="n">
-        <v>-0.05674033621668066</v>
+        <v>0</v>
       </c>
       <c r="CE5" t="n">
-        <v>0</v>
+        <v>-0.156680037834148</v>
       </c>
       <c r="CF5" t="n">
         <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>0</v>
+        <v>0.01340834207470878</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.003032270215988361</v>
+        <v>-0.02876772843215744</v>
       </c>
       <c r="CI5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>-0.0443374461629126</v>
+        <v>-0</v>
       </c>
       <c r="CK5" t="n">
         <v>0</v>
@@ -2981,25 +2981,25 @@
         <v>-0</v>
       </c>
       <c r="CM5" t="n">
-        <v>-0.01005634528201809</v>
+        <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>-0</v>
+        <v>0.0009603401562005243</v>
       </c>
       <c r="CO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP5" t="n">
-        <v>-0</v>
+        <v>-0.1023825971240279</v>
       </c>
       <c r="CQ5" t="n">
-        <v>-0.09666980951995877</v>
+        <v>-0.1120763919394431</v>
       </c>
       <c r="CR5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS5" t="n">
-        <v>-0.003392438049320709</v>
+        <v>-0</v>
       </c>
       <c r="CT5" t="n">
         <v>-0</v>
@@ -3008,25 +3008,25 @@
         <v>0</v>
       </c>
       <c r="CV5" t="n">
-        <v>-0.04769125460511861</v>
+        <v>-0</v>
       </c>
       <c r="CW5" t="n">
-        <v>-0</v>
+        <v>-0.1504955811149828</v>
       </c>
       <c r="CX5" t="n">
         <v>-0</v>
       </c>
       <c r="CY5" t="n">
-        <v>-0</v>
+        <v>0.04677980831838446</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.004720439674557724</v>
+        <v>-0.03436534377897992</v>
       </c>
       <c r="DA5" t="n">
         <v>-0</v>
       </c>
       <c r="DB5" t="n">
-        <v>-0.03749445600612899</v>
+        <v>0</v>
       </c>
       <c r="DC5" t="n">
         <v>-0</v>
@@ -3035,25 +3035,25 @@
         <v>0</v>
       </c>
       <c r="DE5" t="n">
-        <v>-0.008501976758346859</v>
+        <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>-0.1073550004225386</v>
       </c>
       <c r="DG5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH5" t="n">
-        <v>0</v>
+        <v>0.005697320507107386</v>
       </c>
       <c r="DI5" t="n">
-        <v>-0.05746328293999729</v>
+        <v>-0.03554451963310035</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.02372166230491564</v>
+        <v>-0</v>
       </c>
       <c r="DL5" t="n">
         <v>0</v>
@@ -3062,52 +3062,52 @@
         <v>0</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.01745097312707803</v>
+        <v>-0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>-0.03797971118016058</v>
       </c>
       <c r="DP5" t="n">
         <v>0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>-0</v>
+        <v>-0.1445774651546949</v>
       </c>
       <c r="DR5" t="n">
-        <v>-0.06047861789629001</v>
+        <v>-0.03150022683943575</v>
       </c>
       <c r="DS5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT5" t="n">
-        <v>-0.01926104126291537</v>
+        <v>-0</v>
       </c>
       <c r="DU5" t="n">
         <v>0</v>
       </c>
       <c r="DV5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.008812848390023784</v>
+        <v>0</v>
       </c>
       <c r="DX5" t="n">
-        <v>-0</v>
+        <v>0.108900792689901</v>
       </c>
       <c r="DY5" t="n">
         <v>0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0</v>
+        <v>-0.008170735236127543</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.05251599747367489</v>
+        <v>0.02032169238787765</v>
       </c>
       <c r="EB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC5" t="n">
-        <v>-0.01054506753311034</v>
+        <v>0</v>
       </c>
       <c r="ED5" t="n">
         <v>-0</v>
@@ -3116,52 +3116,52 @@
         <v>0</v>
       </c>
       <c r="EF5" t="n">
-        <v>-0.08492869387381369</v>
+        <v>0</v>
       </c>
       <c r="EG5" t="n">
-        <v>0</v>
+        <v>-0.1096274630900833</v>
       </c>
       <c r="EH5" t="n">
         <v>0</v>
       </c>
       <c r="EI5" t="n">
-        <v>-0</v>
+        <v>0.01860708434370387</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.02070181932115597</v>
+        <v>0.06626430637458251</v>
       </c>
       <c r="EK5" t="n">
         <v>0</v>
       </c>
       <c r="EL5" t="n">
-        <v>-0.0767756390359868</v>
+        <v>-0</v>
       </c>
       <c r="EM5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN5" t="n">
         <v>-0</v>
       </c>
       <c r="EO5" t="n">
-        <v>-0.0424287775853364</v>
+        <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>-0.1467796459344186</v>
       </c>
       <c r="EQ5" t="n">
         <v>-0</v>
       </c>
       <c r="ER5" t="n">
-        <v>0</v>
+        <v>-0.1123335465429344</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.07359859062266498</v>
+        <v>-0.09221073772366843</v>
       </c>
       <c r="ET5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.03545113888474494</v>
+        <v>-0</v>
       </c>
       <c r="EV5" t="n">
         <v>0</v>
@@ -3170,25 +3170,25 @@
         <v>-0</v>
       </c>
       <c r="EX5" t="n">
-        <v>-0.05098773898074672</v>
+        <v>0</v>
       </c>
       <c r="EY5" t="n">
-        <v>0</v>
+        <v>-0.1574689103804651</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA5" t="n">
-        <v>0</v>
+        <v>0.009687043752907496</v>
       </c>
       <c r="FB5" t="n">
-        <v>-0.004740314546566374</v>
+        <v>-0.02997147279199384</v>
       </c>
       <c r="FC5" t="n">
         <v>-0</v>
       </c>
       <c r="FD5" t="n">
-        <v>-0.03385556429509889</v>
+        <v>-0</v>
       </c>
       <c r="FE5" t="n">
         <v>0</v>
@@ -3197,216 +3197,216 @@
         <v>-0</v>
       </c>
       <c r="FG5" t="n">
-        <v>-0.01985201663779583</v>
+        <v>0</v>
       </c>
       <c r="FH5" t="n">
-        <v>0</v>
+        <v>0.003141642695163175</v>
       </c>
       <c r="FI5" t="n">
         <v>-0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0</v>
+        <v>0.06948637788492454</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.08032363518707207</v>
+        <v>0.001308650172979257</v>
       </c>
       <c r="FL5" t="n">
         <v>-0</v>
       </c>
       <c r="FM5" t="n">
-        <v>-0.01182854370027355</v>
+        <v>0</v>
       </c>
       <c r="FN5" t="n">
         <v>-0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
-        <v>-0.003629908039656606</v>
+        <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0</v>
+        <v>0.009177169448195244</v>
       </c>
       <c r="FR5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS5" t="n">
-        <v>-0</v>
+        <v>0.0526221200789896</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.01583884650634334</v>
+        <v>0.06605812252549827</v>
       </c>
       <c r="FU5" t="n">
         <v>-0</v>
       </c>
       <c r="FV5" t="n">
-        <v>-0.009099284698466237</v>
+        <v>0</v>
       </c>
       <c r="FW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX5" t="n">
         <v>0</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.002134970166402819</v>
+        <v>-0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>-0</v>
+        <v>0.01449753626028855</v>
       </c>
       <c r="GA5" t="n">
         <v>-0</v>
       </c>
       <c r="GB5" t="n">
-        <v>0</v>
+        <v>-0.08897468858946508</v>
       </c>
       <c r="GC5" t="n">
         <v>0</v>
       </c>
       <c r="GD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE5" t="n">
-        <v>-0.009950679426718512</v>
+        <v>-0</v>
       </c>
       <c r="GF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.2437880743116306</v>
+        <v>-0.1954220276477008</v>
       </c>
       <c r="B6" t="n">
-        <v>-0</v>
+        <v>0.4187980472901455</v>
       </c>
       <c r="C6" t="n">
         <v>-0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2432939132312462</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.108901320056971</v>
+        <v>-0.1427876999395904</v>
       </c>
       <c r="F6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>-0</v>
       </c>
       <c r="H6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2173186944038219</v>
+        <v>-0.1642856331673168</v>
       </c>
       <c r="K6" t="n">
-        <v>-0</v>
+        <v>0.3955840716517784</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.2803970813714597</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.06002170207543432</v>
+        <v>-0.2459164298240328</v>
       </c>
       <c r="O6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.008150991790954281</v>
+        <v>0.009607558461566086</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.2763618112284098</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.2145768838028315</v>
+        <v>-0</v>
       </c>
       <c r="W6" t="n">
-        <v>0.02316005448787439</v>
+        <v>0.1696050801791777</v>
       </c>
       <c r="X6" t="n">
         <v>-0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.04233700776300993</v>
+        <v>0.1354307849188243</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>0.2947873128072957</v>
       </c>
       <c r="AD6" t="n">
         <v>-0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.06489684426068561</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.1517097559376039</v>
+        <v>0.00410490926154863</v>
       </c>
       <c r="AG6" t="n">
         <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ6" t="n">
         <v>-0</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.2098581239774196</v>
+        <v>-0.02370499003951426</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>0.1849425574617186</v>
       </c>
       <c r="AM6" t="n">
         <v>-0</v>
       </c>
       <c r="AN6" t="n">
-        <v>-0.1748563403473986</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.05788436883130037</v>
+        <v>0.09931945016272162</v>
       </c>
       <c r="AP6" t="n">
         <v>0</v>
       </c>
       <c r="AQ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -3415,52 +3415,52 @@
         <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.2456694477192306</v>
+        <v>0.02089235232621242</v>
       </c>
       <c r="AU6" t="n">
-        <v>-0</v>
+        <v>0.4534230801292248</v>
       </c>
       <c r="AV6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW6" t="n">
-        <v>-0.1550294288333979</v>
+        <v>-0</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.07303701132762973</v>
+        <v>0.2879339082676228</v>
       </c>
       <c r="AY6" t="n">
         <v>0</v>
       </c>
       <c r="AZ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA6" t="n">
         <v>-0</v>
       </c>
       <c r="BB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.08544611576379818</v>
+        <v>-0.08157788323026539</v>
       </c>
       <c r="BD6" t="n">
-        <v>0</v>
+        <v>-0.02057230282866103</v>
       </c>
       <c r="BE6" t="n">
         <v>0</v>
       </c>
       <c r="BF6" t="n">
-        <v>-0.1295561298839837</v>
+        <v>0</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.09247361433036809</v>
+        <v>-0.2921517255692092</v>
       </c>
       <c r="BH6" t="n">
         <v>-0</v>
       </c>
       <c r="BI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ6" t="n">
         <v>0</v>
@@ -3469,46 +3469,46 @@
         <v>-0</v>
       </c>
       <c r="BL6" t="n">
-        <v>-0.08276787149411992</v>
+        <v>-0.06693964291718139</v>
       </c>
       <c r="BM6" t="n">
-        <v>-0</v>
+        <v>-0.1619538659553889</v>
       </c>
       <c r="BN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO6" t="n">
-        <v>-0.03706018251766763</v>
+        <v>0</v>
       </c>
       <c r="BP6" t="n">
-        <v>-0.02261502648053505</v>
+        <v>0.02592736573383759</v>
       </c>
       <c r="BQ6" t="n">
         <v>-0</v>
       </c>
       <c r="BR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT6" t="n">
         <v>-0</v>
       </c>
       <c r="BU6" t="n">
-        <v>0.3048971743612848</v>
+        <v>0.03262968612934</v>
       </c>
       <c r="BV6" t="n">
-        <v>-0</v>
+        <v>0.3619661304040587</v>
       </c>
       <c r="BW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
-        <v>-0.1674663562401956</v>
+        <v>-0</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.09231998484180926</v>
+        <v>0.08308823617608486</v>
       </c>
       <c r="BZ6" t="n">
         <v>0</v>
@@ -3517,31 +3517,31 @@
         <v>-0</v>
       </c>
       <c r="CB6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD6" t="n">
-        <v>-0.08560555968816609</v>
+        <v>0.05590909230270501</v>
       </c>
       <c r="CE6" t="n">
-        <v>0</v>
+        <v>-0.131510401549352</v>
       </c>
       <c r="CF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG6" t="n">
-        <v>0.07966427628949052</v>
+        <v>-0</v>
       </c>
       <c r="CH6" t="n">
-        <v>-0.06651362290056193</v>
+        <v>0.008436180995150261</v>
       </c>
       <c r="CI6" t="n">
         <v>0</v>
       </c>
       <c r="CJ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK6" t="n">
         <v>0</v>
@@ -3550,25 +3550,25 @@
         <v>-0</v>
       </c>
       <c r="CM6" t="n">
-        <v>-0.1100895960708406</v>
+        <v>-0.08512089582025675</v>
       </c>
       <c r="CN6" t="n">
-        <v>0</v>
+        <v>-0.0003671429667994622</v>
       </c>
       <c r="CO6" t="n">
         <v>-0</v>
       </c>
       <c r="CP6" t="n">
-        <v>0.02912616912279895</v>
+        <v>0</v>
       </c>
       <c r="CQ6" t="n">
-        <v>-0.1641077647266792</v>
+        <v>-0.1372253758997457</v>
       </c>
       <c r="CR6" t="n">
         <v>-0</v>
       </c>
       <c r="CS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT6" t="n">
         <v>-0</v>
@@ -3577,52 +3577,52 @@
         <v>0</v>
       </c>
       <c r="CV6" t="n">
-        <v>-0.07774351921233834</v>
+        <v>0.03984029655182653</v>
       </c>
       <c r="CW6" t="n">
-        <v>-0</v>
+        <v>-0.1471517614096199</v>
       </c>
       <c r="CX6" t="n">
         <v>0</v>
       </c>
       <c r="CY6" t="n">
-        <v>0.06590136533278391</v>
+        <v>0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>-0.1140713793543298</v>
+        <v>-0.006991832366679</v>
       </c>
       <c r="DA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB6" t="n">
         <v>0</v>
       </c>
       <c r="DC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD6" t="n">
         <v>0</v>
       </c>
       <c r="DE6" t="n">
-        <v>0.1114930709838625</v>
+        <v>0.04474372956995568</v>
       </c>
       <c r="DF6" t="n">
-        <v>0</v>
+        <v>-0.2044638203474287</v>
       </c>
       <c r="DG6" t="n">
         <v>-0</v>
       </c>
       <c r="DH6" t="n">
-        <v>0.09993685699345217</v>
+        <v>0</v>
       </c>
       <c r="DI6" t="n">
-        <v>0.04877837326690779</v>
+        <v>0.05237009733591919</v>
       </c>
       <c r="DJ6" t="n">
         <v>0</v>
       </c>
       <c r="DK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL6" t="n">
         <v>-0</v>
@@ -3631,25 +3631,25 @@
         <v>-0</v>
       </c>
       <c r="DN6" t="n">
-        <v>0.04806356068184679</v>
+        <v>0.05586133783722487</v>
       </c>
       <c r="DO6" t="n">
-        <v>0</v>
+        <v>-0.06456930078015653</v>
       </c>
       <c r="DP6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ6" t="n">
-        <v>-0.01219501703139214</v>
+        <v>-0</v>
       </c>
       <c r="DR6" t="n">
-        <v>0.1529313490710001</v>
+        <v>0.07789967593555609</v>
       </c>
       <c r="DS6" t="n">
         <v>-0</v>
       </c>
       <c r="DT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU6" t="n">
         <v>-0</v>
@@ -3658,127 +3658,127 @@
         <v>0</v>
       </c>
       <c r="DW6" t="n">
-        <v>0.007817671134738385</v>
+        <v>0.01404735728124516</v>
       </c>
       <c r="DX6" t="n">
-        <v>0</v>
+        <v>0.1306605936037903</v>
       </c>
       <c r="DY6" t="n">
         <v>0</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0.0642885061452749</v>
+        <v>0</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.1470081835777767</v>
+        <v>-0.01969679808450326</v>
       </c>
       <c r="EB6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC6" t="n">
         <v>-0</v>
       </c>
       <c r="ED6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE6" t="n">
         <v>-0</v>
       </c>
       <c r="EF6" t="n">
-        <v>-0.2053221808046324</v>
+        <v>-0.04326456552472081</v>
       </c>
       <c r="EG6" t="n">
-        <v>0</v>
+        <v>-0.005405376928812179</v>
       </c>
       <c r="EH6" t="n">
         <v>-0</v>
       </c>
       <c r="EI6" t="n">
-        <v>-0.1106175388505905</v>
+        <v>0</v>
       </c>
       <c r="EJ6" t="n">
-        <v>-0.1122834432653323</v>
+        <v>0.01422267724864703</v>
       </c>
       <c r="EK6" t="n">
         <v>0</v>
       </c>
       <c r="EL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN6" t="n">
         <v>-0</v>
       </c>
       <c r="EO6" t="n">
-        <v>0.0003253697089688535</v>
+        <v>-0.03776585529504655</v>
       </c>
       <c r="EP6" t="n">
-        <v>-0</v>
+        <v>-0.1711025048142696</v>
       </c>
       <c r="EQ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER6" t="n">
-        <v>-0.05456137654355649</v>
+        <v>-0</v>
       </c>
       <c r="ES6" t="n">
-        <v>-0.1101978919393783</v>
+        <v>-0.01769306404251002</v>
       </c>
       <c r="ET6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX6" t="n">
-        <v>-0.1061589811739867</v>
+        <v>0.03029612983941903</v>
       </c>
       <c r="EY6" t="n">
-        <v>0</v>
+        <v>-0.1563182147413756</v>
       </c>
       <c r="EZ6" t="n">
         <v>-0</v>
       </c>
       <c r="FA6" t="n">
-        <v>0.06634688170116392</v>
+        <v>0</v>
       </c>
       <c r="FB6" t="n">
-        <v>-0.07477703298354148</v>
+        <v>-0.05871755482127297</v>
       </c>
       <c r="FC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG6" t="n">
-        <v>-0.1241143673684047</v>
+        <v>0.06370083871925934</v>
       </c>
       <c r="FH6" t="n">
-        <v>0</v>
+        <v>-0.04955302734521723</v>
       </c>
       <c r="FI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ6" t="n">
-        <v>0.08666078154832185</v>
+        <v>-0</v>
       </c>
       <c r="FK6" t="n">
-        <v>-0.04448122164272037</v>
+        <v>-0.1261182687378794</v>
       </c>
       <c r="FL6" t="n">
         <v>0</v>
@@ -3793,81 +3793,81 @@
         <v>-0</v>
       </c>
       <c r="FP6" t="n">
-        <v>0.15172500655264</v>
+        <v>0.02253090324650593</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0</v>
+        <v>-0.2489632334103506</v>
       </c>
       <c r="FR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS6" t="n">
-        <v>-8.432339501302912e-05</v>
+        <v>-0</v>
       </c>
       <c r="FT6" t="n">
-        <v>0.1776820954583389</v>
+        <v>-0.1258002471888759</v>
       </c>
       <c r="FU6" t="n">
         <v>-0</v>
       </c>
       <c r="FV6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX6" t="n">
         <v>-0</v>
       </c>
       <c r="FY6" t="n">
-        <v>0.1362168929923537</v>
+        <v>-0.1035946370815953</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0</v>
+        <v>0.009553946874924474</v>
       </c>
       <c r="GA6" t="n">
         <v>-0</v>
       </c>
       <c r="GB6" t="n">
-        <v>0.01826787168640573</v>
+        <v>-0</v>
       </c>
       <c r="GC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD6" t="n">
         <v>-0</v>
       </c>
       <c r="GE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF6" t="n">
         <v>0</v>
       </c>
       <c r="GG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.3397638533897521</v>
+        <v>-0</v>
       </c>
       <c r="B7" t="n">
-        <v>-0</v>
+        <v>0.5041257075296405</v>
       </c>
       <c r="C7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>-0.2372310548447105</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.0932888737517963</v>
+        <v>-0.1035092374264696</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01877492141353203</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>-0</v>
@@ -3876,25 +3876,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3171843703901898</v>
+        <v>-0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.3996329631951012</v>
       </c>
       <c r="L7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>-0.2819004637376676</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.1630448398881018</v>
+        <v>-0.1383394914988111</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.01457271945140356</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -3903,106 +3903,106 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.030854743474794</v>
+        <v>-0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.1606942981272629</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>0.0002691112396589718</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.1079523005646266</v>
+        <v>0.1170613397109735</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.076008237131685</v>
+        <v>-0</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.07439041324795317</v>
+        <v>-0</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0</v>
+        <v>0.1571321381522187</v>
       </c>
       <c r="AD7" t="n">
         <v>-0</v>
       </c>
       <c r="AE7" t="n">
-        <v>-0</v>
+        <v>-0.007017634708715211</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.05488020620242391</v>
+        <v>-0.06580045571954454</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.04775167841780022</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.09864342191102984</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>0.07144346506423993</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>-0.07869462828334506</v>
       </c>
       <c r="AO7" t="n">
-        <v>-0.05568726161004896</v>
+        <v>-0.04617354243856747</v>
       </c>
       <c r="AP7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.03448879567001197</v>
+        <v>-0</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS7" t="n">
         <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.278986558072683</v>
+        <v>-0</v>
       </c>
       <c r="AU7" t="n">
-        <v>-0</v>
+        <v>0.6452813833261344</v>
       </c>
       <c r="AV7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW7" t="n">
-        <v>-0</v>
+        <v>-0.03043859008565071</v>
       </c>
       <c r="AX7" t="n">
-        <v>-0.006952749524768439</v>
+        <v>0.1391167645546309</v>
       </c>
       <c r="AY7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.07212079955631302</v>
+        <v>0</v>
       </c>
       <c r="BA7" t="n">
         <v>-0</v>
@@ -4011,106 +4011,106 @@
         <v>0</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.08555472858742301</v>
+        <v>-0</v>
       </c>
       <c r="BD7" t="n">
-        <v>0</v>
+        <v>0.02405989534763088</v>
       </c>
       <c r="BE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF7" t="n">
-        <v>0</v>
+        <v>-0.1319058621420198</v>
       </c>
       <c r="BG7" t="n">
-        <v>-0.02849339158694442</v>
+        <v>-0.1807497268309333</v>
       </c>
       <c r="BH7" t="n">
         <v>0</v>
       </c>
       <c r="BI7" t="n">
-        <v>-0.0005237389740141442</v>
+        <v>-0</v>
       </c>
       <c r="BJ7" t="n">
         <v>0</v>
       </c>
       <c r="BK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL7" t="n">
-        <v>-0.06311884775540182</v>
+        <v>-0</v>
       </c>
       <c r="BM7" t="n">
-        <v>0</v>
+        <v>0.03751516374155741</v>
       </c>
       <c r="BN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO7" t="n">
-        <v>0</v>
+        <v>0.06208305875132897</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.1292144998246618</v>
+        <v>0.151222827424272</v>
       </c>
       <c r="BQ7" t="n">
         <v>-0</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.008391763909071561</v>
+        <v>-0</v>
       </c>
       <c r="BS7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT7" t="n">
         <v>-0</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.1878564319566489</v>
+        <v>-0</v>
       </c>
       <c r="BV7" t="n">
-        <v>0</v>
+        <v>0.3486807137794953</v>
       </c>
       <c r="BW7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>0</v>
+        <v>0.01771006915125703</v>
       </c>
       <c r="BY7" t="n">
-        <v>-0.06849070463439251</v>
+        <v>0.09983602611845714</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.021630037475851</v>
+        <v>0</v>
       </c>
       <c r="CB7" t="n">
         <v>-0</v>
       </c>
       <c r="CC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD7" t="n">
-        <v>-0.122773551581241</v>
+        <v>-0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>-0.1413956959969701</v>
       </c>
       <c r="CF7" t="n">
         <v>0</v>
       </c>
       <c r="CG7" t="n">
-        <v>-0</v>
+        <v>0.05561173392831632</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.01730969346919417</v>
+        <v>-0.02943430999816766</v>
       </c>
       <c r="CI7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>-0.01837584593560947</v>
+        <v>-0</v>
       </c>
       <c r="CK7" t="n">
         <v>0</v>
@@ -4119,52 +4119,52 @@
         <v>-0</v>
       </c>
       <c r="CM7" t="n">
-        <v>-0.0294188882888412</v>
+        <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>-0</v>
+        <v>-0.02933609226176554</v>
       </c>
       <c r="CO7" t="n">
         <v>0</v>
       </c>
       <c r="CP7" t="n">
-        <v>-0</v>
+        <v>-0.08407037218359455</v>
       </c>
       <c r="CQ7" t="n">
-        <v>-0.06887104131818374</v>
+        <v>-0.1695380737959747</v>
       </c>
       <c r="CR7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS7" t="n">
-        <v>-0.02330082619917598</v>
+        <v>-0</v>
       </c>
       <c r="CT7" t="n">
         <v>-0</v>
       </c>
       <c r="CU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV7" t="n">
-        <v>-0.1069385175383842</v>
+        <v>0</v>
       </c>
       <c r="CW7" t="n">
-        <v>-0</v>
+        <v>-0.1274961537618101</v>
       </c>
       <c r="CX7" t="n">
         <v>-0</v>
       </c>
       <c r="CY7" t="n">
-        <v>-0</v>
+        <v>0.08103396217414308</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.0066998092750989</v>
+        <v>-0.02615883410276997</v>
       </c>
       <c r="DA7" t="n">
         <v>0</v>
       </c>
       <c r="DB7" t="n">
-        <v>-0.01516431757983174</v>
+        <v>0</v>
       </c>
       <c r="DC7" t="n">
         <v>-0</v>
@@ -4173,25 +4173,25 @@
         <v>0</v>
       </c>
       <c r="DE7" t="n">
-        <v>-0.003425814306202126</v>
+        <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>0</v>
+        <v>-0.127091763715067</v>
       </c>
       <c r="DG7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH7" t="n">
-        <v>0</v>
+        <v>0.07403145058595569</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.03321263642961265</v>
+        <v>-0.03782592316156227</v>
       </c>
       <c r="DJ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK7" t="n">
-        <v>-0.03069349408996092</v>
+        <v>-0</v>
       </c>
       <c r="DL7" t="n">
         <v>-0</v>
@@ -4200,25 +4200,25 @@
         <v>0</v>
       </c>
       <c r="DN7" t="n">
-        <v>-0.009836188599079004</v>
+        <v>-0</v>
       </c>
       <c r="DO7" t="n">
-        <v>0</v>
+        <v>-0.08871101625336741</v>
       </c>
       <c r="DP7" t="n">
         <v>0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>-0</v>
+        <v>-0.04223766106366407</v>
       </c>
       <c r="DR7" t="n">
-        <v>-0.03952326355194434</v>
+        <v>-0.07778481783605634</v>
       </c>
       <c r="DS7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT7" t="n">
-        <v>-0.05477126562415228</v>
+        <v>0</v>
       </c>
       <c r="DU7" t="n">
         <v>0</v>
@@ -4227,25 +4227,25 @@
         <v>0</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.008352775811999448</v>
+        <v>-0</v>
       </c>
       <c r="DX7" t="n">
-        <v>-0</v>
+        <v>0.05302322513064234</v>
       </c>
       <c r="DY7" t="n">
         <v>0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>-0</v>
+        <v>0.01797153088033895</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.013220825572723</v>
+        <v>-0.0441536828297382</v>
       </c>
       <c r="EB7" t="n">
         <v>0</v>
       </c>
       <c r="EC7" t="n">
-        <v>0.007797369234700584</v>
+        <v>0</v>
       </c>
       <c r="ED7" t="n">
         <v>-0</v>
@@ -4254,52 +4254,52 @@
         <v>-0</v>
       </c>
       <c r="EF7" t="n">
-        <v>-0.1806118377017258</v>
+        <v>0</v>
       </c>
       <c r="EG7" t="n">
-        <v>0</v>
+        <v>-0.1071656930668131</v>
       </c>
       <c r="EH7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI7" t="n">
-        <v>-0</v>
+        <v>0.0665940028053852</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.03001113968757345</v>
+        <v>0.1405955523304833</v>
       </c>
       <c r="EK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL7" t="n">
-        <v>-0.03895006309891447</v>
+        <v>-0</v>
       </c>
       <c r="EM7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN7" t="n">
         <v>-0</v>
       </c>
       <c r="EO7" t="n">
-        <v>-0.0403499937093165</v>
+        <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>0</v>
+        <v>-0.0933933088195308</v>
       </c>
       <c r="EQ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER7" t="n">
-        <v>0</v>
+        <v>0.1001866333918145</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.09751436858104183</v>
+        <v>-0.09258164801621771</v>
       </c>
       <c r="ET7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU7" t="n">
-        <v>0.02910366034908708</v>
+        <v>-0</v>
       </c>
       <c r="EV7" t="n">
         <v>0</v>
@@ -4308,79 +4308,79 @@
         <v>-0</v>
       </c>
       <c r="EX7" t="n">
-        <v>-0.1128083265876472</v>
+        <v>0</v>
       </c>
       <c r="EY7" t="n">
-        <v>0</v>
+        <v>-0.1389333722460638</v>
       </c>
       <c r="EZ7" t="n">
         <v>0</v>
       </c>
       <c r="FA7" t="n">
-        <v>0</v>
+        <v>0.07461870801245589</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.007268741829923558</v>
+        <v>-0.03304935999091547</v>
       </c>
       <c r="FC7" t="n">
         <v>-0</v>
       </c>
       <c r="FD7" t="n">
-        <v>-0.01003679262580572</v>
+        <v>-0</v>
       </c>
       <c r="FE7" t="n">
         <v>0</v>
       </c>
       <c r="FF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG7" t="n">
-        <v>-0.0861969161367117</v>
+        <v>-0</v>
       </c>
       <c r="FH7" t="n">
-        <v>0</v>
+        <v>-0.01848347800476622</v>
       </c>
       <c r="FI7" t="n">
         <v>-0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>-0</v>
+        <v>-0.03594897980764319</v>
       </c>
       <c r="FK7" t="n">
-        <v>-0.02949787990836623</v>
+        <v>-0.01987819567541265</v>
       </c>
       <c r="FL7" t="n">
         <v>-0</v>
       </c>
       <c r="FM7" t="n">
-        <v>0.01276362520387362</v>
+        <v>-0</v>
       </c>
       <c r="FN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP7" t="n">
-        <v>-0.02194146015765358</v>
+        <v>0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0</v>
+        <v>-0.002018720470150852</v>
       </c>
       <c r="FR7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS7" t="n">
-        <v>-0</v>
+        <v>0.09899104132610075</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.01675264591354266</v>
+        <v>-0.1446575625095987</v>
       </c>
       <c r="FU7" t="n">
         <v>-0</v>
       </c>
       <c r="FV7" t="n">
-        <v>0.02156348261660238</v>
+        <v>-0</v>
       </c>
       <c r="FW7" t="n">
         <v>0</v>
@@ -4389,54 +4389,54 @@
         <v>0</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.04036770263264193</v>
+        <v>-0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>-0</v>
+        <v>-0.0515637035475681</v>
       </c>
       <c r="GA7" t="n">
         <v>-0</v>
       </c>
       <c r="GB7" t="n">
-        <v>0</v>
+        <v>-0.042083001003991</v>
       </c>
       <c r="GC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.03992083680787651</v>
+        <v>-0</v>
       </c>
       <c r="GF7" t="n">
         <v>-0</v>
       </c>
       <c r="GG7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.4556969670504933</v>
+        <v>-0</v>
       </c>
       <c r="B8" t="n">
-        <v>-0</v>
+        <v>0.1743930348667126</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2519963257977612</v>
+        <v>-0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.143609472115778</v>
+        <v>-0.03473326318764297</v>
       </c>
       <c r="F8" t="n">
-        <v>-0</v>
+        <v>-0.1124399238096319</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H8" t="n">
         <v>-0</v>
@@ -4445,25 +4445,25 @@
         <v>-0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4497305877231433</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>0.1376535954122998</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.3427336633116167</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.06665539813698272</v>
+        <v>-0.02536916286700803</v>
       </c>
       <c r="O8" t="n">
-        <v>-0</v>
+        <v>-0.1282912440437764</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q8" t="n">
         <v>-0</v>
@@ -4472,49 +4472,49 @@
         <v>-0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.01498047279162544</v>
+        <v>-0</v>
       </c>
       <c r="T8" t="n">
-        <v>-0</v>
+        <v>0.03083896390262631</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.1346050294683271</v>
+        <v>-0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.2158334463013999</v>
+        <v>-0.01140347722961424</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>-0.009205706395514775</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z8" t="n">
         <v>-0</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.05375520435537461</v>
+        <v>-0</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0</v>
+        <v>0.03044405612371312</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.09912285495666152</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.199441969451036</v>
+        <v>0.01337513956841836</v>
       </c>
       <c r="AG8" t="n">
-        <v>-0</v>
+        <v>0.02085538396420539</v>
       </c>
       <c r="AH8" t="n">
         <v>0</v>
@@ -4523,55 +4523,55 @@
         <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.150622036524392</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>0.01841579955003348</v>
       </c>
       <c r="AM8" t="n">
-        <v>-0.04590799834381665</v>
+        <v>-0</v>
       </c>
       <c r="AN8" t="n">
         <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>-0.0332585883974588</v>
+        <v>0.008689224508616223</v>
       </c>
       <c r="AP8" t="n">
-        <v>-0</v>
+        <v>-0.05519197051151679</v>
       </c>
       <c r="AQ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS8" t="n">
         <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.293847177422677</v>
+        <v>-0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>0.147119580441308</v>
       </c>
       <c r="AV8" t="n">
-        <v>-0.2711212025548329</v>
+        <v>-0</v>
       </c>
       <c r="AW8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AX8" t="n">
-        <v>-0.02774139713299809</v>
+        <v>-0.01217970476227227</v>
       </c>
       <c r="AY8" t="n">
-        <v>0</v>
+        <v>-0.1314720237560484</v>
       </c>
       <c r="AZ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA8" t="n">
         <v>-0</v>
@@ -4580,25 +4580,25 @@
         <v>0</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.133332679095003</v>
+        <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>0.06390055733204919</v>
       </c>
       <c r="BE8" t="n">
-        <v>-0.08394803835930227</v>
+        <v>0</v>
       </c>
       <c r="BF8" t="n">
         <v>0</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.1781512373921581</v>
+        <v>-0.03072026887686052</v>
       </c>
       <c r="BH8" t="n">
-        <v>-0</v>
+        <v>-0.0359304154919657</v>
       </c>
       <c r="BI8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ8" t="n">
         <v>0</v>
@@ -4607,106 +4607,106 @@
         <v>-0</v>
       </c>
       <c r="BL8" t="n">
-        <v>-0.05897799055605676</v>
+        <v>-0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>0.04248848834845207</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.09273655137656216</v>
+        <v>0</v>
       </c>
       <c r="BO8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.2000315575833569</v>
+        <v>0.02194265649991996</v>
       </c>
       <c r="BQ8" t="n">
-        <v>-0</v>
+        <v>0.003400706760048903</v>
       </c>
       <c r="BR8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.2640306934254837</v>
+        <v>-0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>0.07789481698900219</v>
       </c>
       <c r="BW8" t="n">
-        <v>-0.1285764346402436</v>
+        <v>0</v>
       </c>
       <c r="BX8" t="n">
         <v>0</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.0006418355257232694</v>
+        <v>-0.01245385775957143</v>
       </c>
       <c r="BZ8" t="n">
-        <v>-0</v>
+        <v>-0.0572230167096204</v>
       </c>
       <c r="CA8" t="n">
         <v>-0</v>
       </c>
       <c r="CB8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD8" t="n">
-        <v>-0.144763411558517</v>
+        <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>0</v>
+        <v>-0.04297514468073706</v>
       </c>
       <c r="CF8" t="n">
-        <v>0.07124327579576842</v>
+        <v>0</v>
       </c>
       <c r="CG8" t="n">
         <v>-0</v>
       </c>
       <c r="CH8" t="n">
-        <v>-0.02343562349922308</v>
+        <v>-9.446815642010504e-05</v>
       </c>
       <c r="CI8" t="n">
-        <v>0</v>
+        <v>0.03314030280160316</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK8" t="n">
         <v>0</v>
       </c>
       <c r="CL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM8" t="n">
-        <v>-0.03286232550488125</v>
+        <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>-0</v>
+        <v>-0.01340257530726127</v>
       </c>
       <c r="CO8" t="n">
-        <v>-0.005691139270048385</v>
+        <v>-0</v>
       </c>
       <c r="CP8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ8" t="n">
-        <v>-0.09434077675991008</v>
+        <v>-0.005747351306206976</v>
       </c>
       <c r="CR8" t="n">
-        <v>-0</v>
+        <v>-0.008419242035111152</v>
       </c>
       <c r="CS8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT8" t="n">
         <v>-0</v>
@@ -4715,49 +4715,49 @@
         <v>-0</v>
       </c>
       <c r="CV8" t="n">
-        <v>-0.1255679979275358</v>
+        <v>-0</v>
       </c>
       <c r="CW8" t="n">
-        <v>-0</v>
+        <v>-0.03558843357916609</v>
       </c>
       <c r="CX8" t="n">
-        <v>0.07639689921933757</v>
+        <v>-0</v>
       </c>
       <c r="CY8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ8" t="n">
-        <v>-0.07403450055378091</v>
+        <v>-0.001738572184703807</v>
       </c>
       <c r="DA8" t="n">
-        <v>-0</v>
+        <v>0.03759876361616611</v>
       </c>
       <c r="DB8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC8" t="n">
         <v>-0</v>
       </c>
       <c r="DD8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE8" t="n">
-        <v>0.03895250768158612</v>
+        <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0</v>
+        <v>-0.03478892179711686</v>
       </c>
       <c r="DG8" t="n">
-        <v>0.04705988313740946</v>
+        <v>0</v>
       </c>
       <c r="DH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI8" t="n">
-        <v>-0.0207812751809163</v>
+        <v>0.03966669339468282</v>
       </c>
       <c r="DJ8" t="n">
-        <v>-0</v>
+        <v>0.03437012730037958</v>
       </c>
       <c r="DK8" t="n">
         <v>0</v>
@@ -4766,25 +4766,25 @@
         <v>0</v>
       </c>
       <c r="DM8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN8" t="n">
-        <v>-0.02138249975852769</v>
+        <v>0</v>
       </c>
       <c r="DO8" t="n">
-        <v>0</v>
+        <v>-0.01120300926004788</v>
       </c>
       <c r="DP8" t="n">
-        <v>-0.06371055859220869</v>
+        <v>0</v>
       </c>
       <c r="DQ8" t="n">
         <v>-0</v>
       </c>
       <c r="DR8" t="n">
-        <v>0.005365875142859859</v>
+        <v>0.01900164208977507</v>
       </c>
       <c r="DS8" t="n">
-        <v>-0</v>
+        <v>0.006033138519774721</v>
       </c>
       <c r="DT8" t="n">
         <v>0</v>
@@ -4793,82 +4793,82 @@
         <v>0</v>
       </c>
       <c r="DV8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW8" t="n">
-        <v>0.01387143431724277</v>
+        <v>-0</v>
       </c>
       <c r="DX8" t="n">
-        <v>-0</v>
+        <v>0.04375969307372416</v>
       </c>
       <c r="DY8" t="n">
-        <v>0.04086909703271663</v>
+        <v>-0</v>
       </c>
       <c r="DZ8" t="n">
         <v>0</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.03704590906730222</v>
+        <v>-0.009890927883237912</v>
       </c>
       <c r="EB8" t="n">
-        <v>0</v>
+        <v>-0.01338624962262904</v>
       </c>
       <c r="EC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF8" t="n">
-        <v>-0.2288321206880153</v>
+        <v>0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>-0.02821440013369807</v>
       </c>
       <c r="EH8" t="n">
-        <v>0.1020958134977968</v>
+        <v>-0</v>
       </c>
       <c r="EI8" t="n">
         <v>0</v>
       </c>
       <c r="EJ8" t="n">
-        <v>-0.02022409404548844</v>
+        <v>0.0116772456484757</v>
       </c>
       <c r="EK8" t="n">
-        <v>0</v>
+        <v>0.01614942456304305</v>
       </c>
       <c r="EL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN8" t="n">
         <v>-0</v>
       </c>
       <c r="EO8" t="n">
-        <v>-0.04077864991171618</v>
+        <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>-0.01329620180428465</v>
       </c>
       <c r="EQ8" t="n">
-        <v>0.09515439540848428</v>
+        <v>0</v>
       </c>
       <c r="ER8" t="n">
         <v>0</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.01827727910186094</v>
+        <v>-0.001342134466025575</v>
       </c>
       <c r="ET8" t="n">
-        <v>-0</v>
+        <v>0.009456040165660524</v>
       </c>
       <c r="EU8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV8" t="n">
         <v>0</v>
@@ -4877,25 +4877,25 @@
         <v>0</v>
       </c>
       <c r="EX8" t="n">
-        <v>-0.1385643152301863</v>
+        <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>-0.03715442110182327</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0.07347511352134983</v>
+        <v>0</v>
       </c>
       <c r="FA8" t="n">
         <v>0</v>
       </c>
       <c r="FB8" t="n">
-        <v>-0.04079608107472472</v>
+        <v>0.006034088691866806</v>
       </c>
       <c r="FC8" t="n">
-        <v>0</v>
+        <v>0.03692217566401769</v>
       </c>
       <c r="FD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE8" t="n">
         <v>0</v>
@@ -4904,76 +4904,76 @@
         <v>0</v>
       </c>
       <c r="FG8" t="n">
-        <v>-0.09455657805242894</v>
+        <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>-0</v>
+        <v>-0.006710723855572024</v>
       </c>
       <c r="FI8" t="n">
-        <v>0.08560390196046715</v>
+        <v>-0</v>
       </c>
       <c r="FJ8" t="n">
         <v>-0</v>
       </c>
       <c r="FK8" t="n">
-        <v>-0.09847167429634118</v>
+        <v>-0.02678989488238155</v>
       </c>
       <c r="FL8" t="n">
-        <v>0</v>
+        <v>0.05175248878279542</v>
       </c>
       <c r="FM8" t="n">
         <v>-0</v>
       </c>
       <c r="FN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO8" t="n">
         <v>0</v>
       </c>
       <c r="FP8" t="n">
-        <v>-0.01072270851787551</v>
+        <v>0</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0</v>
+        <v>-0.0184925737797745</v>
       </c>
       <c r="FR8" t="n">
-        <v>0.01143285071888492</v>
+        <v>-0</v>
       </c>
       <c r="FS8" t="n">
         <v>-0</v>
       </c>
       <c r="FT8" t="n">
-        <v>-0.04670442468880887</v>
+        <v>0.01825478339632675</v>
       </c>
       <c r="FU8" t="n">
-        <v>0</v>
+        <v>0.004055218709608235</v>
       </c>
       <c r="FV8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX8" t="n">
         <v>-0</v>
       </c>
       <c r="FY8" t="n">
-        <v>0.05407828838133553</v>
+        <v>-0</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0</v>
+        <v>-0.01833227671029344</v>
       </c>
       <c r="GA8" t="n">
-        <v>-0.07208391618739411</v>
+        <v>-0</v>
       </c>
       <c r="GB8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC8" t="n">
         <v>0</v>
       </c>
       <c r="GD8" t="n">
-        <v>-0</v>
+        <v>-0.04827680823440983</v>
       </c>
       <c r="GE8" t="n">
         <v>-0</v>
@@ -4982,57 +4982,57 @@
         <v>-0</v>
       </c>
       <c r="GG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.2298929652375416</v>
+        <v>-0</v>
       </c>
       <c r="B9" t="n">
-        <v>-0</v>
+        <v>0.3283068073820434</v>
       </c>
       <c r="C9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>-0.1207774283402124</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.01764728138300335</v>
+        <v>-0.07773988633430826</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02052501503541972</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>-0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2063695664267597</v>
+        <v>-0</v>
       </c>
       <c r="K9" t="n">
-        <v>-0</v>
+        <v>0.2352662396350179</v>
       </c>
       <c r="L9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>-0.1411833572811504</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.06446897922090136</v>
+        <v>-0.1199824716543887</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>-2.179972489316663e-05</v>
+        <v>-0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -5041,25 +5041,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.005154049091835387</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.08784805924325044</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>0.007117985798446931</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.07220045667915705</v>
+        <v>0.02143947730245838</v>
       </c>
       <c r="X9" t="n">
         <v>-0</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.07198191169555541</v>
+        <v>-0</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
@@ -5068,187 +5068,187 @@
         <v>-0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.02349287621186534</v>
+        <v>-0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>0.1014984607774064</v>
       </c>
       <c r="AD9" t="n">
         <v>-0</v>
       </c>
       <c r="AE9" t="n">
-        <v>-0</v>
+        <v>-0.02173333987599557</v>
       </c>
       <c r="AF9" t="n">
-        <v>-0.003983610786117312</v>
+        <v>-0.01354588346448615</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.03671010367616848</v>
+        <v>-0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ9" t="n">
         <v>-0</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.05663470168923109</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>0.009392643053794732</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>-0.02299711906343939</v>
       </c>
       <c r="AO9" t="n">
-        <v>-0.01689018861527239</v>
+        <v>-0.09067660282806821</v>
       </c>
       <c r="AP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.01681786909472629</v>
+        <v>-0</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.1545206154747143</v>
+        <v>-0</v>
       </c>
       <c r="AU9" t="n">
-        <v>0</v>
+        <v>0.3963180747627342</v>
       </c>
       <c r="AV9" t="n">
         <v>-0</v>
       </c>
       <c r="AW9" t="n">
-        <v>-0</v>
+        <v>-0.04327219128759652</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.01673009651501017</v>
+        <v>0.07798558662555109</v>
       </c>
       <c r="AY9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.0544876330303938</v>
+        <v>0</v>
       </c>
       <c r="BA9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.05063749259530229</v>
+        <v>-0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>0.03279996808661855</v>
       </c>
       <c r="BE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF9" t="n">
-        <v>0</v>
+        <v>-0.05196272173987439</v>
       </c>
       <c r="BG9" t="n">
-        <v>-0.01435308209157612</v>
+        <v>-0.1115664831392619</v>
       </c>
       <c r="BH9" t="n">
         <v>0</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.01064323313082747</v>
+        <v>-0</v>
       </c>
       <c r="BJ9" t="n">
         <v>0</v>
       </c>
       <c r="BK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>-0.04201312913551536</v>
+        <v>-0</v>
       </c>
       <c r="BM9" t="n">
-        <v>0</v>
+        <v>0.1099654645002262</v>
       </c>
       <c r="BN9" t="n">
         <v>0</v>
       </c>
       <c r="BO9" t="n">
-        <v>0</v>
+        <v>0.02163232906724719</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.06900924756893767</v>
+        <v>0.1467288976874444</v>
       </c>
       <c r="BQ9" t="n">
         <v>-0</v>
       </c>
       <c r="BR9" t="n">
-        <v>0.01900811042575131</v>
+        <v>0</v>
       </c>
       <c r="BS9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT9" t="n">
         <v>-0</v>
       </c>
       <c r="BU9" t="n">
-        <v>0.1114994601275322</v>
+        <v>-0</v>
       </c>
       <c r="BV9" t="n">
-        <v>0</v>
+        <v>0.213174879106405</v>
       </c>
       <c r="BW9" t="n">
         <v>0</v>
       </c>
       <c r="BX9" t="n">
-        <v>0</v>
+        <v>0.005104996168572356</v>
       </c>
       <c r="BY9" t="n">
-        <v>-0.01678121489212141</v>
+        <v>0.04376484871564493</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA9" t="n">
-        <v>0.02407895628212216</v>
+        <v>0</v>
       </c>
       <c r="CB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD9" t="n">
-        <v>-0.07098412523659016</v>
+        <v>0</v>
       </c>
       <c r="CE9" t="n">
-        <v>0</v>
+        <v>-0.08173743051855564</v>
       </c>
       <c r="CF9" t="n">
         <v>0</v>
       </c>
       <c r="CG9" t="n">
-        <v>-0</v>
+        <v>0.02153433136440049</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.006298281532892674</v>
+        <v>0.003563493582222834</v>
       </c>
       <c r="CI9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>-0.0150588578453275</v>
+        <v>-0</v>
       </c>
       <c r="CK9" t="n">
         <v>0</v>
@@ -5257,25 +5257,25 @@
         <v>-0</v>
       </c>
       <c r="CM9" t="n">
-        <v>-0.001232600540438913</v>
+        <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>-0</v>
+        <v>-0.04472240024823495</v>
       </c>
       <c r="CO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP9" t="n">
-        <v>-0</v>
+        <v>-0.04306232508372304</v>
       </c>
       <c r="CQ9" t="n">
-        <v>-0.01703769852168351</v>
+        <v>-0.06629283659070384</v>
       </c>
       <c r="CR9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS9" t="n">
-        <v>-0.01319368711005656</v>
+        <v>-0</v>
       </c>
       <c r="CT9" t="n">
         <v>-0</v>
@@ -5284,160 +5284,160 @@
         <v>0</v>
       </c>
       <c r="CV9" t="n">
-        <v>-0.06430561371003406</v>
+        <v>-0</v>
       </c>
       <c r="CW9" t="n">
-        <v>-0</v>
+        <v>-0.06531559479077755</v>
       </c>
       <c r="CX9" t="n">
         <v>-0</v>
       </c>
       <c r="CY9" t="n">
-        <v>0</v>
+        <v>0.04057442749354043</v>
       </c>
       <c r="CZ9" t="n">
-        <v>-0.006106074294155662</v>
+        <v>-0.003414956353138951</v>
       </c>
       <c r="DA9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB9" t="n">
-        <v>-0.007108724399963638</v>
+        <v>0</v>
       </c>
       <c r="DC9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD9" t="n">
         <v>0</v>
       </c>
       <c r="DE9" t="n">
-        <v>0.001913309471004514</v>
+        <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>-0.04330229135967675</v>
       </c>
       <c r="DG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH9" t="n">
-        <v>0</v>
+        <v>0.1092370631613046</v>
       </c>
       <c r="DI9" t="n">
-        <v>-0.003895321881750527</v>
+        <v>0.01849228182279138</v>
       </c>
       <c r="DJ9" t="n">
         <v>0</v>
       </c>
       <c r="DK9" t="n">
-        <v>-0.01030774853233187</v>
+        <v>-0</v>
       </c>
       <c r="DL9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM9" t="n">
         <v>0</v>
       </c>
       <c r="DN9" t="n">
-        <v>0.02053736982893209</v>
+        <v>-0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>-0.05369333703049096</v>
       </c>
       <c r="DP9" t="n">
         <v>0</v>
       </c>
       <c r="DQ9" t="n">
-        <v>-0</v>
+        <v>-0.08138346781767614</v>
       </c>
       <c r="DR9" t="n">
-        <v>-0.05531745963835494</v>
+        <v>0.006022467148449112</v>
       </c>
       <c r="DS9" t="n">
         <v>-0</v>
       </c>
       <c r="DT9" t="n">
-        <v>-0.03547161993921434</v>
+        <v>0</v>
       </c>
       <c r="DU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW9" t="n">
-        <v>0.01612636372870304</v>
+        <v>0</v>
       </c>
       <c r="DX9" t="n">
-        <v>-0</v>
+        <v>0.0517965445569347</v>
       </c>
       <c r="DY9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ9" t="n">
-        <v>-0</v>
+        <v>0.006157345703735695</v>
       </c>
       <c r="EA9" t="n">
-        <v>0.004128645306245135</v>
+        <v>-0.02980874777856182</v>
       </c>
       <c r="EB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC9" t="n">
-        <v>-0.005051825776576814</v>
+        <v>0</v>
       </c>
       <c r="ED9" t="n">
         <v>-0</v>
       </c>
       <c r="EE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF9" t="n">
-        <v>-0.1150191144925382</v>
+        <v>0</v>
       </c>
       <c r="EG9" t="n">
-        <v>0</v>
+        <v>-0.06100644147310545</v>
       </c>
       <c r="EH9" t="n">
         <v>0</v>
       </c>
       <c r="EI9" t="n">
-        <v>-0</v>
+        <v>-0.09302589795709308</v>
       </c>
       <c r="EJ9" t="n">
-        <v>0.004175959730230929</v>
+        <v>0.07627301779843605</v>
       </c>
       <c r="EK9" t="n">
         <v>0</v>
       </c>
       <c r="EL9" t="n">
-        <v>0.03883679576840792</v>
+        <v>-0</v>
       </c>
       <c r="EM9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN9" t="n">
         <v>-0</v>
       </c>
       <c r="EO9" t="n">
-        <v>-0.02690317766635937</v>
+        <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>0</v>
+        <v>-0.06157103800492181</v>
       </c>
       <c r="EQ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER9" t="n">
-        <v>0</v>
+        <v>0.07403088763190442</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.08377905561856534</v>
+        <v>-0.009539076614804168</v>
       </c>
       <c r="ET9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU9" t="n">
-        <v>0.002763315523767467</v>
+        <v>-0</v>
       </c>
       <c r="EV9" t="n">
         <v>0</v>
@@ -5446,79 +5446,79 @@
         <v>-0</v>
       </c>
       <c r="EX9" t="n">
-        <v>-0.06252338503609267</v>
+        <v>0</v>
       </c>
       <c r="EY9" t="n">
-        <v>0</v>
+        <v>-0.06678389206811626</v>
       </c>
       <c r="EZ9" t="n">
         <v>0</v>
       </c>
       <c r="FA9" t="n">
-        <v>-0</v>
+        <v>0.03677232928477695</v>
       </c>
       <c r="FB9" t="n">
-        <v>-0.009413958964271338</v>
+        <v>0.01268033339422586</v>
       </c>
       <c r="FC9" t="n">
         <v>-0</v>
       </c>
       <c r="FD9" t="n">
-        <v>-0.002776925635423577</v>
+        <v>-0</v>
       </c>
       <c r="FE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF9" t="n">
         <v>-0</v>
       </c>
       <c r="FG9" t="n">
-        <v>-0.05584646094033976</v>
+        <v>-0</v>
       </c>
       <c r="FH9" t="n">
-        <v>0</v>
+        <v>0.04346098200100585</v>
       </c>
       <c r="FI9" t="n">
         <v>-0</v>
       </c>
       <c r="FJ9" t="n">
-        <v>-0</v>
+        <v>0.02789116306574649</v>
       </c>
       <c r="FK9" t="n">
-        <v>-0.04014742863858198</v>
+        <v>-0.03958641003710229</v>
       </c>
       <c r="FL9" t="n">
         <v>-0</v>
       </c>
       <c r="FM9" t="n">
-        <v>0.02628128020402756</v>
+        <v>-0</v>
       </c>
       <c r="FN9" t="n">
         <v>0</v>
       </c>
       <c r="FO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP9" t="n">
-        <v>-0.01129739695408444</v>
+        <v>0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0</v>
+        <v>0.03627809883764446</v>
       </c>
       <c r="FR9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS9" t="n">
-        <v>-0</v>
+        <v>-0.00845254374100959</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.03354007104684682</v>
+        <v>-0.05696582436926316</v>
       </c>
       <c r="FU9" t="n">
         <v>0</v>
       </c>
       <c r="FV9" t="n">
-        <v>0.01602362366523775</v>
+        <v>-0</v>
       </c>
       <c r="FW9" t="n">
         <v>0</v>
@@ -5527,597 +5527,597 @@
         <v>0</v>
       </c>
       <c r="FY9" t="n">
-        <v>0.02124902183654116</v>
+        <v>-0</v>
       </c>
       <c r="FZ9" t="n">
-        <v>0</v>
+        <v>-0.0161496499722509</v>
       </c>
       <c r="GA9" t="n">
         <v>-0</v>
       </c>
       <c r="GB9" t="n">
-        <v>0</v>
+        <v>0.001233148128233219</v>
       </c>
       <c r="GC9" t="n">
         <v>-0</v>
       </c>
       <c r="GD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE9" t="n">
-        <v>0.01662659060287315</v>
+        <v>-0</v>
       </c>
       <c r="GF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0</v>
+        <v>-0.07696947270004473</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2069864237286109</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>-0</v>
+        <v>0.2016214502256299</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.01951514480374106</v>
+        <v>-0</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.05912128557037761</v>
+        <v>0.1157869669215288</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>-0.1033734512647029</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.04637005797111957</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>-0</v>
+        <v>-0.02210908396022081</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1596445939319178</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>0.1331561995673929</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.01202435721661904</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.05305875790595652</v>
+        <v>0.04318351270748384</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>-0.1099002715246304</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.07291936490123926</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>-0.02093336906773674</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.02726262538882523</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.06676316770881574</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.02114269173494662</v>
+        <v>-0</v>
       </c>
       <c r="W10" t="n">
-        <v>0.01365311818811979</v>
+        <v>0.07890522887082978</v>
       </c>
       <c r="X10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>-0.04614720424183687</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.03859589247440431</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>-0.01597202117037514</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.0945835299793369</v>
+        <v>-0</v>
       </c>
       <c r="AD10" t="n">
-        <v>-0</v>
+        <v>0.06950806967032129</v>
       </c>
       <c r="AE10" t="n">
-        <v>-0.007477184475172535</v>
+        <v>-0</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.002749945214800756</v>
+        <v>0.03093881280961872</v>
       </c>
       <c r="AG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>0.00117022905000689</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.03241647510600422</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
         <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>-0</v>
+        <v>-0.01983965001769866</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.09091157215931071</v>
+        <v>0</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>-0.04789683462262502</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.006216253849746115</v>
+        <v>-0</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.01544290872664259</v>
+        <v>-0.02366668118632644</v>
       </c>
       <c r="AP10" t="n">
         <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>-0</v>
+        <v>-0.02286211221197578</v>
       </c>
       <c r="AR10" t="n">
-        <v>-0.006046246913164154</v>
+        <v>0</v>
       </c>
       <c r="AS10" t="n">
         <v>0</v>
       </c>
       <c r="AT10" t="n">
-        <v>-0</v>
+        <v>-0.02884374295048727</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.1732657846306533</v>
+        <v>-0</v>
       </c>
       <c r="AV10" t="n">
-        <v>0</v>
+        <v>0.2193972234743503</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.01957675287716313</v>
+        <v>-0</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.03690448143044782</v>
+        <v>0.3207702557496955</v>
       </c>
       <c r="AY10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>-0</v>
+        <v>-0.07020748774478684</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.04480464891428009</v>
+        <v>-0</v>
       </c>
       <c r="BB10" t="n">
         <v>-0</v>
       </c>
       <c r="BC10" t="n">
-        <v>0</v>
+        <v>-0.06003626100989187</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.060856222112569</v>
+        <v>0</v>
       </c>
       <c r="BE10" t="n">
-        <v>-0</v>
+        <v>-0.02691095007386184</v>
       </c>
       <c r="BF10" t="n">
-        <v>-0.005253265756998568</v>
+        <v>-0</v>
       </c>
       <c r="BG10" t="n">
-        <v>-0.00585720250977675</v>
+        <v>-0.009544828863084165</v>
       </c>
       <c r="BH10" t="n">
         <v>0</v>
       </c>
       <c r="BI10" t="n">
-        <v>0</v>
+        <v>-0.05976000291450284</v>
       </c>
       <c r="BJ10" t="n">
-        <v>-0.06345789406880893</v>
+        <v>0</v>
       </c>
       <c r="BK10" t="n">
         <v>0</v>
       </c>
       <c r="BL10" t="n">
-        <v>0</v>
+        <v>0.008113265322946879</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.006150837733086884</v>
+        <v>-0</v>
       </c>
       <c r="BN10" t="n">
-        <v>0</v>
+        <v>0.1017514575820282</v>
       </c>
       <c r="BO10" t="n">
-        <v>-0.04511264537525448</v>
+        <v>-0</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.05508942187533152</v>
+        <v>0.1244854733840165</v>
       </c>
       <c r="BQ10" t="n">
         <v>-0</v>
       </c>
       <c r="BR10" t="n">
-        <v>-0</v>
+        <v>0.0189180233771716</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.0369285255572764</v>
+        <v>-0</v>
       </c>
       <c r="BT10" t="n">
         <v>-0</v>
       </c>
       <c r="BU10" t="n">
-        <v>-0</v>
+        <v>-0.01385128518564919</v>
       </c>
       <c r="BV10" t="n">
-        <v>0.06959554351607933</v>
+        <v>-0</v>
       </c>
       <c r="BW10" t="n">
-        <v>0</v>
+        <v>0.06774734881929438</v>
       </c>
       <c r="BX10" t="n">
-        <v>-0.02929898335197377</v>
+        <v>-0</v>
       </c>
       <c r="BY10" t="n">
-        <v>-0.01551070464494062</v>
+        <v>0.1902448076776465</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA10" t="n">
-        <v>-0</v>
+        <v>-0.02656331894542038</v>
       </c>
       <c r="CB10" t="n">
-        <v>-0.04031927766202614</v>
+        <v>-0</v>
       </c>
       <c r="CC10" t="n">
         <v>-0</v>
       </c>
       <c r="CD10" t="n">
-        <v>0</v>
+        <v>0.02034133825941085</v>
       </c>
       <c r="CE10" t="n">
-        <v>-0.05752283379897335</v>
+        <v>-0</v>
       </c>
       <c r="CF10" t="n">
-        <v>0</v>
+        <v>-0.04699263444004738</v>
       </c>
       <c r="CG10" t="n">
-        <v>-0.004107956467681801</v>
+        <v>-0</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.02056756483348424</v>
+        <v>-0.01668366728162284</v>
       </c>
       <c r="CI10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ10" t="n">
-        <v>0</v>
+        <v>0.04383616154534201</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.02260080092053607</v>
+        <v>0</v>
       </c>
       <c r="CL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM10" t="n">
-        <v>-0</v>
+        <v>-0.01862564290496641</v>
       </c>
       <c r="CN10" t="n">
-        <v>-0.02123387232815215</v>
+        <v>0</v>
       </c>
       <c r="CO10" t="n">
-        <v>0</v>
+        <v>0.02095571106115168</v>
       </c>
       <c r="CP10" t="n">
-        <v>0.006362254084254223</v>
+        <v>0</v>
       </c>
       <c r="CQ10" t="n">
-        <v>-0.05929272848789835</v>
+        <v>-0.09566336127992235</v>
       </c>
       <c r="CR10" t="n">
         <v>0</v>
       </c>
       <c r="CS10" t="n">
-        <v>-0</v>
+        <v>-0.01574613581124839</v>
       </c>
       <c r="CT10" t="n">
-        <v>0.007392879830870538</v>
+        <v>-0</v>
       </c>
       <c r="CU10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV10" t="n">
-        <v>-0</v>
+        <v>0.008467205444187862</v>
       </c>
       <c r="CW10" t="n">
-        <v>-0.05861935112873383</v>
+        <v>0</v>
       </c>
       <c r="CX10" t="n">
-        <v>-0</v>
+        <v>-0.04890065092296637</v>
       </c>
       <c r="CY10" t="n">
-        <v>0.008777319500899676</v>
+        <v>0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.02361071289912649</v>
+        <v>0.01159564163286751</v>
       </c>
       <c r="DA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB10" t="n">
-        <v>0</v>
+        <v>0.05012097697111455</v>
       </c>
       <c r="DC10" t="n">
-        <v>0.01974754483942704</v>
+        <v>0</v>
       </c>
       <c r="DD10" t="n">
         <v>0</v>
       </c>
       <c r="DE10" t="n">
-        <v>0</v>
+        <v>0.06479758714463849</v>
       </c>
       <c r="DF10" t="n">
-        <v>-0.02828642697137001</v>
+        <v>0</v>
       </c>
       <c r="DG10" t="n">
-        <v>-0</v>
+        <v>-0.05772440718896819</v>
       </c>
       <c r="DH10" t="n">
-        <v>0.02080313443950797</v>
+        <v>-0</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.02417700083406032</v>
+        <v>-0.003157092802213352</v>
       </c>
       <c r="DJ10" t="n">
         <v>-0</v>
       </c>
       <c r="DK10" t="n">
-        <v>-0</v>
+        <v>0.00679964774954456</v>
       </c>
       <c r="DL10" t="n">
-        <v>-0.01958485816544991</v>
+        <v>0</v>
       </c>
       <c r="DM10" t="n">
         <v>-0</v>
       </c>
       <c r="DN10" t="n">
-        <v>-0</v>
+        <v>0.0476987066068679</v>
       </c>
       <c r="DO10" t="n">
-        <v>-0.01497928364632178</v>
+        <v>-0</v>
       </c>
       <c r="DP10" t="n">
-        <v>0</v>
+        <v>0.02668329201269046</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0.0197007268220936</v>
+        <v>-0</v>
       </c>
       <c r="DR10" t="n">
-        <v>0.01312413443650691</v>
+        <v>-0.0548485526824387</v>
       </c>
       <c r="DS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT10" t="n">
-        <v>0</v>
+        <v>0.02249029706572267</v>
       </c>
       <c r="DU10" t="n">
-        <v>0.01584681491134797</v>
+        <v>-0</v>
       </c>
       <c r="DV10" t="n">
         <v>0</v>
       </c>
       <c r="DW10" t="n">
-        <v>0</v>
+        <v>-0.013233896686564</v>
       </c>
       <c r="DX10" t="n">
-        <v>0.01748065943767753</v>
+        <v>0</v>
       </c>
       <c r="DY10" t="n">
-        <v>-0</v>
+        <v>0.05656239692128827</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0.02902502433819163</v>
+        <v>-0</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.01437477636063428</v>
+        <v>-0.08500902360990245</v>
       </c>
       <c r="EB10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC10" t="n">
-        <v>-0</v>
+        <v>0.006723966083309936</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.02738413974231584</v>
+        <v>0</v>
       </c>
       <c r="EE10" t="n">
         <v>-0</v>
       </c>
       <c r="EF10" t="n">
-        <v>0</v>
+        <v>-0.0215345684281638</v>
       </c>
       <c r="EG10" t="n">
-        <v>-0.05924713182720359</v>
+        <v>0</v>
       </c>
       <c r="EH10" t="n">
-        <v>0</v>
+        <v>-0.1276345191394526</v>
       </c>
       <c r="EI10" t="n">
-        <v>0.017092595768802</v>
+        <v>-0</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.05052596014173856</v>
+        <v>0.07436289157042429</v>
       </c>
       <c r="EK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL10" t="n">
-        <v>-0</v>
+        <v>0.02797119219255734</v>
       </c>
       <c r="EM10" t="n">
-        <v>0.008275498932892443</v>
+        <v>-0</v>
       </c>
       <c r="EN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO10" t="n">
-        <v>0</v>
+        <v>0.01180000823078715</v>
       </c>
       <c r="EP10" t="n">
-        <v>-0.01870547031023768</v>
+        <v>0</v>
       </c>
       <c r="EQ10" t="n">
-        <v>-0</v>
+        <v>-0.01137635458638876</v>
       </c>
       <c r="ER10" t="n">
-        <v>0.04751636751715294</v>
+        <v>-0</v>
       </c>
       <c r="ES10" t="n">
-        <v>-0.01540776219806303</v>
+        <v>-0.05499382572839853</v>
       </c>
       <c r="ET10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU10" t="n">
-        <v>-0</v>
+        <v>-0.007606054264812314</v>
       </c>
       <c r="EV10" t="n">
-        <v>0.034031822663559</v>
+        <v>-0</v>
       </c>
       <c r="EW10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX10" t="n">
-        <v>0</v>
+        <v>0.01030271888870477</v>
       </c>
       <c r="EY10" t="n">
-        <v>-0.04920096136110596</v>
+        <v>0</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0</v>
+        <v>-0.05062782566597504</v>
       </c>
       <c r="FA10" t="n">
-        <v>0.0005593689054182564</v>
+        <v>-0</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.0153757060833355</v>
+        <v>-0.0150272712597896</v>
       </c>
       <c r="FC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD10" t="n">
-        <v>-0</v>
+        <v>0.0454164443421159</v>
       </c>
       <c r="FE10" t="n">
-        <v>0.02721168373129624</v>
+        <v>0</v>
       </c>
       <c r="FF10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG10" t="n">
-        <v>0</v>
+        <v>0.04081222778784157</v>
       </c>
       <c r="FH10" t="n">
-        <v>-0.03853876813449523</v>
+        <v>-0</v>
       </c>
       <c r="FI10" t="n">
-        <v>-0</v>
+        <v>0.009888464164040838</v>
       </c>
       <c r="FJ10" t="n">
-        <v>-0.02200609001559629</v>
+        <v>0</v>
       </c>
       <c r="FK10" t="n">
-        <v>-0.001439842290027527</v>
+        <v>-0.0275050529342836</v>
       </c>
       <c r="FL10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM10" t="n">
-        <v>0</v>
+        <v>-0.0463984432806392</v>
       </c>
       <c r="FN10" t="n">
-        <v>0.01327905082093947</v>
+        <v>0</v>
       </c>
       <c r="FO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP10" t="n">
-        <v>-0</v>
+        <v>0.03286563646129265</v>
       </c>
       <c r="FQ10" t="n">
-        <v>-0.01490307717542129</v>
+        <v>0</v>
       </c>
       <c r="FR10" t="n">
-        <v>0</v>
+        <v>0.04409374242748866</v>
       </c>
       <c r="FS10" t="n">
-        <v>0.0621929812623974</v>
+        <v>-0</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.004422339212322368</v>
+        <v>-0.04757975094221137</v>
       </c>
       <c r="FU10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV10" t="n">
-        <v>-0</v>
+        <v>0.01792633521516845</v>
       </c>
       <c r="FW10" t="n">
-        <v>-0.00944361861757939</v>
+        <v>0</v>
       </c>
       <c r="FX10" t="n">
         <v>-0</v>
       </c>
       <c r="FY10" t="n">
-        <v>-0</v>
+        <v>-0.02145652209839058</v>
       </c>
       <c r="FZ10" t="n">
-        <v>-0.007582882409554605</v>
+        <v>-0</v>
       </c>
       <c r="GA10" t="n">
-        <v>0</v>
+        <v>0.01353339181145704</v>
       </c>
       <c r="GB10" t="n">
-        <v>-0.04370181495552099</v>
+        <v>-0</v>
       </c>
       <c r="GC10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE10" t="n">
-        <v>0</v>
+        <v>-0.01506458312684127</v>
       </c>
       <c r="GF10" t="n">
-        <v>-0.004505924095278648</v>
+        <v>-0</v>
       </c>
       <c r="GG10" t="n">
         <v>0</v>
@@ -6125,10 +6125,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6278876489490955</v>
+        <v>0.1652892862556573</v>
       </c>
       <c r="C11" t="n">
         <v>-0</v>
@@ -6137,16 +6137,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1712879555564514</v>
+        <v>-0.0264146024961754</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.3501132585537283</v>
+        <v>-0.1174356493132239</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I11" t="n">
         <v>-0</v>
@@ -6155,100 +6155,100 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.559449062797598</v>
+        <v>0.1379468754328304</v>
       </c>
       <c r="L11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.07360021323449785</v>
+        <v>-0.02124926973936801</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.4009119742897609</v>
+        <v>-0.1127670127139074</v>
       </c>
       <c r="P11" t="n">
         <v>-0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R11" t="n">
         <v>-0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.09689010517475607</v>
+        <v>0.02404256971153591</v>
       </c>
       <c r="U11" t="n">
         <v>-0</v>
       </c>
       <c r="V11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0.0408874542365556</v>
+        <v>-0.007093590057199175</v>
       </c>
       <c r="X11" t="n">
-        <v>-0.09991654639175418</v>
+        <v>-0.0125614788636972</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.1500430305326338</v>
+        <v>0.02094900141080212</v>
       </c>
       <c r="AD11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.001211778514013872</v>
+        <v>0.0159617055140481</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.1175196679635501</v>
+        <v>0.01301831500287388</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI11" t="n">
         <v>-0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.1291107727448017</v>
+        <v>0.01636867971189054</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>-0.02499206483995235</v>
+        <v>0.0101043825122123</v>
       </c>
       <c r="AP11" t="n">
-        <v>-0.1359719159682472</v>
+        <v>-0.04786832545120231</v>
       </c>
       <c r="AQ11" t="n">
         <v>0</v>
@@ -6257,25 +6257,25 @@
         <v>-0</v>
       </c>
       <c r="AS11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT11" t="n">
         <v>-0</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.3393119248138452</v>
+        <v>0.1164872141931369</v>
       </c>
       <c r="AV11" t="n">
         <v>-0</v>
       </c>
       <c r="AW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX11" t="n">
-        <v>-0.02533047346670944</v>
+        <v>0.004705182197437219</v>
       </c>
       <c r="AY11" t="n">
-        <v>-0.1552200508595243</v>
+        <v>-0.08347751699450125</v>
       </c>
       <c r="AZ11" t="n">
         <v>0</v>
@@ -6284,52 +6284,52 @@
         <v>-0</v>
       </c>
       <c r="BB11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC11" t="n">
         <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.2095346632623783</v>
+        <v>0.06265281871981307</v>
       </c>
       <c r="BE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF11" t="n">
         <v>0</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.06080162020576724</v>
+        <v>-0.04465927375930281</v>
       </c>
       <c r="BH11" t="n">
-        <v>-0.05806808197326079</v>
+        <v>-0.04931744919729091</v>
       </c>
       <c r="BI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ11" t="n">
         <v>0</v>
       </c>
       <c r="BK11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM11" t="n">
-        <v>-0.05244142093224464</v>
+        <v>0.03639492417860281</v>
       </c>
       <c r="BN11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.1510986221863929</v>
+        <v>0.01422980003466152</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.2237069015551342</v>
+        <v>0.01364211965267809</v>
       </c>
       <c r="BR11" t="n">
         <v>-0</v>
@@ -6344,34 +6344,34 @@
         <v>-0</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.1776306673945004</v>
+        <v>0.06236177390650901</v>
       </c>
       <c r="BW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY11" t="n">
-        <v>-0.1706013168636198</v>
+        <v>-0.007623674477425353</v>
       </c>
       <c r="BZ11" t="n">
-        <v>-0.2951436580228722</v>
+        <v>-0.04314910863681892</v>
       </c>
       <c r="CA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD11" t="n">
         <v>0</v>
       </c>
       <c r="CE11" t="n">
-        <v>-0.1550367193681815</v>
+        <v>-0.03349466109785174</v>
       </c>
       <c r="CF11" t="n">
         <v>0</v>
@@ -6380,52 +6380,52 @@
         <v>-0</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.02738820787316648</v>
+        <v>-0.001642604332717485</v>
       </c>
       <c r="CI11" t="n">
-        <v>0.09049728830998599</v>
+        <v>0.02679018920119219</v>
       </c>
       <c r="CJ11" t="n">
         <v>-0</v>
       </c>
       <c r="CK11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.04903341317165896</v>
+        <v>-0.01068487401483509</v>
       </c>
       <c r="CO11" t="n">
         <v>-0</v>
       </c>
       <c r="CP11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ11" t="n">
-        <v>-0.06456316198540524</v>
+        <v>0.004812318131834537</v>
       </c>
       <c r="CR11" t="n">
-        <v>-0.1165298993226736</v>
+        <v>-0.00773204097683432</v>
       </c>
       <c r="CS11" t="n">
         <v>-0</v>
       </c>
       <c r="CT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV11" t="n">
         <v>-0</v>
       </c>
       <c r="CW11" t="n">
-        <v>-0.1426982170746747</v>
+        <v>-0.02662294950417437</v>
       </c>
       <c r="CX11" t="n">
         <v>-0</v>
@@ -6434,16 +6434,16 @@
         <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.01556971046259471</v>
+        <v>-0.004050833091589666</v>
       </c>
       <c r="DA11" t="n">
-        <v>0.06849721965637665</v>
+        <v>0.03148958583116034</v>
       </c>
       <c r="DB11" t="n">
         <v>0</v>
       </c>
       <c r="DC11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD11" t="n">
         <v>0</v>
@@ -6452,22 +6452,22 @@
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.006146217745728391</v>
+        <v>-0.01270776701586833</v>
       </c>
       <c r="DG11" t="n">
         <v>0</v>
       </c>
       <c r="DH11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI11" t="n">
-        <v>-0.03763049568287204</v>
+        <v>0.009244334633828528</v>
       </c>
       <c r="DJ11" t="n">
-        <v>-0.04604298331676301</v>
+        <v>0.02386309733495847</v>
       </c>
       <c r="DK11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL11" t="n">
         <v>0</v>
@@ -6479,7 +6479,7 @@
         <v>0</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.008254275364359659</v>
+        <v>-0.0139028280131466</v>
       </c>
       <c r="DP11" t="n">
         <v>0</v>
@@ -6488,37 +6488,37 @@
         <v>-0</v>
       </c>
       <c r="DR11" t="n">
-        <v>-0.003168490528900906</v>
+        <v>0.03325284213609852</v>
       </c>
       <c r="DS11" t="n">
-        <v>-0.1065353926852301</v>
+        <v>0.001760983138845805</v>
       </c>
       <c r="DT11" t="n">
         <v>0</v>
       </c>
       <c r="DU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV11" t="n">
         <v>0</v>
       </c>
       <c r="DW11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.07452934044562243</v>
+        <v>0.02561566515131305</v>
       </c>
       <c r="DY11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.06453715963171874</v>
+        <v>-0.008132986118546782</v>
       </c>
       <c r="EB11" t="n">
-        <v>-0.02807293559832943</v>
+        <v>-0.01216157183728593</v>
       </c>
       <c r="EC11" t="n">
         <v>-0</v>
@@ -6527,25 +6527,25 @@
         <v>-0</v>
       </c>
       <c r="EE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF11" t="n">
         <v>0</v>
       </c>
       <c r="EG11" t="n">
-        <v>-0.2456827513503654</v>
+        <v>-0.02112845778588181</v>
       </c>
       <c r="EH11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ11" t="n">
-        <v>0.1198966178187648</v>
+        <v>0.004993323280375564</v>
       </c>
       <c r="EK11" t="n">
-        <v>0.1021734684118332</v>
+        <v>0.01109149501841999</v>
       </c>
       <c r="EL11" t="n">
         <v>-0</v>
@@ -6554,31 +6554,31 @@
         <v>-0</v>
       </c>
       <c r="EN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO11" t="n">
         <v>0</v>
       </c>
       <c r="EP11" t="n">
-        <v>-0.0272903459927958</v>
+        <v>-0.01221545924980194</v>
       </c>
       <c r="EQ11" t="n">
         <v>0</v>
       </c>
       <c r="ER11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES11" t="n">
-        <v>-0.01987417707876375</v>
+        <v>-0.009470151870062055</v>
       </c>
       <c r="ET11" t="n">
-        <v>0.1491779089800131</v>
+        <v>0.01933533977152293</v>
       </c>
       <c r="EU11" t="n">
         <v>0</v>
       </c>
       <c r="EV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW11" t="n">
         <v>0</v>
@@ -6587,34 +6587,34 @@
         <v>0</v>
       </c>
       <c r="EY11" t="n">
-        <v>-0.1440026351242509</v>
+        <v>-0.02816804995451873</v>
       </c>
       <c r="EZ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.02907888848517319</v>
+        <v>0.003760137488556624</v>
       </c>
       <c r="FC11" t="n">
-        <v>0.09912055610209065</v>
+        <v>0.0321465888273262</v>
       </c>
       <c r="FD11" t="n">
         <v>-0</v>
       </c>
       <c r="FE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG11" t="n">
         <v>0</v>
       </c>
       <c r="FH11" t="n">
-        <v>-0.08268119908836734</v>
+        <v>-0.005018350660556292</v>
       </c>
       <c r="FI11" t="n">
         <v>-0</v>
@@ -6623,43 +6623,43 @@
         <v>-0</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.01636397873661443</v>
+        <v>-0.02431929299627959</v>
       </c>
       <c r="FL11" t="n">
-        <v>0.1027478897936687</v>
+        <v>0.03498763498465274</v>
       </c>
       <c r="FM11" t="n">
         <v>-0</v>
       </c>
       <c r="FN11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ11" t="n">
-        <v>-0.04828480443019297</v>
+        <v>-0.01010344927742902</v>
       </c>
       <c r="FR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS11" t="n">
         <v>-0</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.014504155773635</v>
+        <v>0.01003327465580131</v>
       </c>
       <c r="FU11" t="n">
-        <v>-0.008451042607340585</v>
+        <v>-0.00158408540320202</v>
       </c>
       <c r="FV11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX11" t="n">
         <v>-0</v>
@@ -6668,25 +6668,25 @@
         <v>-0</v>
       </c>
       <c r="FZ11" t="n">
-        <v>-0.001203501629079581</v>
+        <v>-0.009082143176263317</v>
       </c>
       <c r="GA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC11" t="n">
         <v>0</v>
       </c>
       <c r="GD11" t="n">
-        <v>-0.02622638643590508</v>
+        <v>-0.04266018414259966</v>
       </c>
       <c r="GE11" t="n">
         <v>-0</v>
       </c>
       <c r="GF11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG11" t="n">
         <v>-0</v>
@@ -6697,103 +6697,103 @@
         <v>-0</v>
       </c>
       <c r="B12" t="n">
-        <v>0.3610527740835415</v>
+        <v>0.5914379034894386</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1536890472570562</v>
+        <v>-0.2700082841972247</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.05056723875345984</v>
+        <v>-0.1764911818632713</v>
       </c>
       <c r="F12" t="n">
         <v>-0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J12" t="n">
         <v>-0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3527225660881256</v>
+        <v>0.5000091316423384</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.1234386161458169</v>
+        <v>-0.2742230706801445</v>
       </c>
       <c r="N12" t="n">
-        <v>0.005190315599258817</v>
+        <v>-0.233142794411105</v>
       </c>
       <c r="O12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T12" t="n">
-        <v>0.01894369346661907</v>
+        <v>0.1149389259578944</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V12" t="n">
-        <v>0.03846587172682898</v>
+        <v>-0.03452219132372505</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1759588038452655</v>
+        <v>0.0489705818066543</v>
       </c>
       <c r="X12" t="n">
         <v>-0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
         <v>-0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.1098680927000033</v>
+        <v>0.2014803559320878</v>
       </c>
       <c r="AD12" t="n">
         <v>-0</v>
       </c>
       <c r="AE12" t="n">
-        <v>-0.06219075835244924</v>
+        <v>0.01027499409830972</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.006044470734599615</v>
+        <v>-0.002996001515855707</v>
       </c>
       <c r="AG12" t="n">
         <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI12" t="n">
         <v>-0</v>
@@ -6802,79 +6802,79 @@
         <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.07193820071975573</v>
+        <v>0.03874974961562001</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.03675419525639296</v>
+        <v>-0.04304618538148554</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.00082744077343162</v>
+        <v>-0.1108289131866962</v>
       </c>
       <c r="AP12" t="n">
         <v>0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR12" t="n">
         <v>-0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT12" t="n">
         <v>-0</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.3004974683344365</v>
+        <v>0.6024871898722551</v>
       </c>
       <c r="AV12" t="n">
         <v>-0</v>
       </c>
       <c r="AW12" t="n">
-        <v>-0.006047348203416498</v>
+        <v>-0.08768800231804517</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.01790014224333462</v>
+        <v>0.01297869914743469</v>
       </c>
       <c r="AY12" t="n">
         <v>-0</v>
       </c>
       <c r="AZ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB12" t="n">
         <v>-0</v>
       </c>
       <c r="BC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.05642348075962308</v>
+        <v>0.08808459700199292</v>
       </c>
       <c r="BE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF12" t="n">
-        <v>-0.08362873575265468</v>
+        <v>-0.09938598065545112</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.005219637817931284</v>
+        <v>-0.1292167484824082</v>
       </c>
       <c r="BH12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ12" t="n">
         <v>-0</v>
@@ -6883,19 +6883,19 @@
         <v>0</v>
       </c>
       <c r="BL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM12" t="n">
-        <v>-0.05135380993287543</v>
+        <v>0.1517257483133761</v>
       </c>
       <c r="BN12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO12" t="n">
-        <v>-0.05679561608971413</v>
+        <v>0.05971381048031623</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.02161079657154353</v>
+        <v>0.1987674423509818</v>
       </c>
       <c r="BQ12" t="n">
         <v>-0</v>
@@ -6913,16 +6913,16 @@
         <v>-0</v>
       </c>
       <c r="BV12" t="n">
-        <v>0.0999813195330036</v>
+        <v>0.3451021407812929</v>
       </c>
       <c r="BW12" t="n">
         <v>0</v>
       </c>
       <c r="BX12" t="n">
-        <v>-0.06084227150455462</v>
+        <v>-0.08804673298095748</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.09076723573490618</v>
+        <v>0.06692244169115173</v>
       </c>
       <c r="BZ12" t="n">
         <v>-0</v>
@@ -6931,82 +6931,82 @@
         <v>0</v>
       </c>
       <c r="CB12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC12" t="n">
         <v>-0</v>
       </c>
       <c r="CD12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE12" t="n">
-        <v>-0.1053890566608072</v>
+        <v>-0.120429673429857</v>
       </c>
       <c r="CF12" t="n">
         <v>0</v>
       </c>
       <c r="CG12" t="n">
-        <v>0.03382220139184162</v>
+        <v>0.03817396847238497</v>
       </c>
       <c r="CH12" t="n">
-        <v>-0.01441266593077274</v>
+        <v>0.01515397658264587</v>
       </c>
       <c r="CI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ12" t="n">
         <v>-0</v>
       </c>
       <c r="CK12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL12" t="n">
         <v>-0</v>
       </c>
       <c r="CM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN12" t="n">
-        <v>-0.03411949141179399</v>
+        <v>-0.1174312128646397</v>
       </c>
       <c r="CO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP12" t="n">
-        <v>0.006792098153855066</v>
+        <v>-0.05884056233782319</v>
       </c>
       <c r="CQ12" t="n">
-        <v>-0.124310571397396</v>
+        <v>-0.1405572483651377</v>
       </c>
       <c r="CR12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS12" t="n">
         <v>-0</v>
       </c>
       <c r="CT12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU12" t="n">
         <v>-0</v>
       </c>
       <c r="CV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW12" t="n">
-        <v>-0.1005833540353983</v>
+        <v>-0.104084178924646</v>
       </c>
       <c r="CX12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY12" t="n">
-        <v>0.03878299306351091</v>
+        <v>0.06199741040165992</v>
       </c>
       <c r="CZ12" t="n">
-        <v>-0.02468292506895725</v>
+        <v>0.00561303817635082</v>
       </c>
       <c r="DA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB12" t="n">
         <v>0</v>
@@ -7018,28 +7018,28 @@
         <v>0</v>
       </c>
       <c r="DE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>-0.1024938538749363</v>
+        <v>-0.003951853314290088</v>
       </c>
       <c r="DG12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH12" t="n">
-        <v>0.01798601988464822</v>
+        <v>0.1435205245447175</v>
       </c>
       <c r="DI12" t="n">
-        <v>0.01042284977007318</v>
+        <v>0.01977365871526315</v>
       </c>
       <c r="DJ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK12" t="n">
         <v>-0</v>
       </c>
       <c r="DL12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM12" t="n">
         <v>0</v>
@@ -7048,16 +7048,16 @@
         <v>-0</v>
       </c>
       <c r="DO12" t="n">
-        <v>-0.05390680489619418</v>
+        <v>-0.06513249637737364</v>
       </c>
       <c r="DP12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0.01555077610380671</v>
+        <v>-0.06954136876115312</v>
       </c>
       <c r="DR12" t="n">
-        <v>-0.08185071986786309</v>
+        <v>-0.1232614574982204</v>
       </c>
       <c r="DS12" t="n">
         <v>0</v>
@@ -7075,25 +7075,25 @@
         <v>0</v>
       </c>
       <c r="DX12" t="n">
-        <v>-0.06614781358867865</v>
+        <v>-0.1369861246641911</v>
       </c>
       <c r="DY12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ12" t="n">
-        <v>-0.0145402262376598</v>
+        <v>-0.04311834359862247</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.05390307974717936</v>
+        <v>-0.0716713096870663</v>
       </c>
       <c r="EB12" t="n">
         <v>0</v>
       </c>
       <c r="EC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE12" t="n">
         <v>-0</v>
@@ -7102,16 +7102,16 @@
         <v>-0</v>
       </c>
       <c r="EG12" t="n">
-        <v>-0.09242644677357552</v>
+        <v>-0.09642902137969481</v>
       </c>
       <c r="EH12" t="n">
         <v>0</v>
       </c>
       <c r="EI12" t="n">
-        <v>0.05957240295628712</v>
+        <v>0.09893084267580986</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.06568511447614007</v>
+        <v>0.1411487021733108</v>
       </c>
       <c r="EK12" t="n">
         <v>-0</v>
@@ -7129,130 +7129,130 @@
         <v>0</v>
       </c>
       <c r="EP12" t="n">
-        <v>-0.01582342980177256</v>
+        <v>-0.09749976041729709</v>
       </c>
       <c r="EQ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER12" t="n">
-        <v>-0.04954568142354072</v>
+        <v>0.03896866951435704</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.02068723132161691</v>
+        <v>0.07962980998225233</v>
       </c>
       <c r="ET12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU12" t="n">
         <v>0</v>
       </c>
       <c r="EV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX12" t="n">
         <v>0</v>
       </c>
       <c r="EY12" t="n">
-        <v>-0.09669292226586861</v>
+        <v>-0.1005016643008999</v>
       </c>
       <c r="EZ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA12" t="n">
-        <v>0.03096262564109101</v>
+        <v>0.06315332342626415</v>
       </c>
       <c r="FB12" t="n">
-        <v>-0.0258577633687973</v>
+        <v>0.03154279324818181</v>
       </c>
       <c r="FC12" t="n">
         <v>-0</v>
       </c>
       <c r="FD12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE12" t="n">
         <v>-0</v>
       </c>
       <c r="FF12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG12" t="n">
         <v>0</v>
       </c>
       <c r="FH12" t="n">
-        <v>0.05708342589363236</v>
+        <v>-0.1069053086129344</v>
       </c>
       <c r="FI12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ12" t="n">
-        <v>0.08368427615330458</v>
+        <v>0.06192481393789113</v>
       </c>
       <c r="FK12" t="n">
-        <v>-0.01716179530365509</v>
+        <v>-0.05721743776492584</v>
       </c>
       <c r="FL12" t="n">
         <v>-0</v>
       </c>
       <c r="FM12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP12" t="n">
         <v>0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>-0.007708312678935065</v>
+        <v>0.01991874451372399</v>
       </c>
       <c r="FR12" t="n">
         <v>-0</v>
       </c>
       <c r="FS12" t="n">
-        <v>-0.02209260541308961</v>
+        <v>-0.02731616210389017</v>
       </c>
       <c r="FT12" t="n">
-        <v>-0.007327059709765219</v>
+        <v>-0.05490476016112526</v>
       </c>
       <c r="FU12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>-0.1086569635957143</v>
+        <v>-0.04095812196305167</v>
       </c>
       <c r="GA12" t="n">
         <v>-0</v>
       </c>
       <c r="GB12" t="n">
-        <v>-0.01460737168480161</v>
+        <v>-0.04110984064748718</v>
       </c>
       <c r="GC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF12" t="n">
         <v>0</v>
@@ -7263,19 +7263,19 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.6407270859074364</v>
+        <v>0.2345444383930769</v>
       </c>
       <c r="B13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>-0</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.7593067814860808</v>
+        <v>-0.1216807891449209</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1478551483449358</v>
+        <v>0.1410537212993428</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -7287,49 +7287,49 @@
         <v>-0</v>
       </c>
       <c r="I13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5236853930634151</v>
+        <v>0.2381202740506073</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.644002415840072</v>
+        <v>-0.04539047436077651</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1334811229907295</v>
+        <v>0.07194555998477496</v>
       </c>
       <c r="O13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.001650075576609215</v>
+        <v>0.03266054526219389</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.1180820998988183</v>
+        <v>0.06417996284898232</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1081283273954149</v>
+        <v>0.04603389529523597</v>
       </c>
       <c r="X13" t="n">
         <v>-0</v>
@@ -7341,22 +7341,22 @@
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.06449228305546163</v>
+        <v>-0.0271599026959527</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0.1715930747644097</v>
+        <v>-0.01199679884211743</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.04092486314641479</v>
+        <v>0.004159106550662947</v>
       </c>
       <c r="AG13" t="n">
         <v>0</v>
@@ -7368,22 +7368,22 @@
         <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.213926587430818</v>
+        <v>0.001633980103269576</v>
       </c>
       <c r="AL13" t="n">
         <v>0</v>
       </c>
       <c r="AM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>-0.2222838469157552</v>
+        <v>-0.01311220947692371</v>
       </c>
       <c r="AO13" t="n">
-        <v>-0.0650268667837222</v>
+        <v>-0.06874272791987146</v>
       </c>
       <c r="AP13" t="n">
         <v>0</v>
@@ -7395,49 +7395,49 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.3242014532608657</v>
+        <v>0.1182004317564466</v>
       </c>
       <c r="AU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW13" t="n">
-        <v>-0.3429774892540537</v>
+        <v>-0.05074345304682504</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.02325667671082839</v>
+        <v>0.1528599084345949</v>
       </c>
       <c r="AY13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB13" t="n">
         <v>-0</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.2248668999724371</v>
+        <v>0.1233976544867207</v>
       </c>
       <c r="BD13" t="n">
         <v>0</v>
       </c>
       <c r="BE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BF13" t="n">
-        <v>-0.2866076031146412</v>
+        <v>-0.01444688431409666</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.1166153326981298</v>
+        <v>0.08819682083908824</v>
       </c>
       <c r="BH13" t="n">
         <v>0</v>
@@ -7449,82 +7449,82 @@
         <v>0</v>
       </c>
       <c r="BK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL13" t="n">
-        <v>-0.01874982616278345</v>
+        <v>0.02430412674535051</v>
       </c>
       <c r="BM13" t="n">
         <v>0</v>
       </c>
       <c r="BN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.01491067922003469</v>
+        <v>0.0152057089225464</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.008782943955726147</v>
+        <v>0.08150825544347831</v>
       </c>
       <c r="BQ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR13" t="n">
         <v>0</v>
       </c>
       <c r="BS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT13" t="n">
         <v>-0</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.3457758833776244</v>
+        <v>0.05576673528481684</v>
       </c>
       <c r="BV13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW13" t="n">
         <v>-0</v>
       </c>
       <c r="BX13" t="n">
-        <v>-0.201532049611824</v>
+        <v>-0.003142789870127412</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.07777571818123123</v>
+        <v>0.07638890276791373</v>
       </c>
       <c r="BZ13" t="n">
         <v>0</v>
       </c>
       <c r="CA13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC13" t="n">
         <v>-0</v>
       </c>
       <c r="CD13" t="n">
-        <v>-0.1531751024446053</v>
+        <v>-0.04347259515190958</v>
       </c>
       <c r="CE13" t="n">
         <v>0</v>
       </c>
       <c r="CF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.1388797691966558</v>
+        <v>-0.01876570050951991</v>
       </c>
       <c r="CH13" t="n">
-        <v>-0.03091111588213778</v>
+        <v>-0.02987607512746258</v>
       </c>
       <c r="CI13" t="n">
         <v>0</v>
       </c>
       <c r="CJ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK13" t="n">
         <v>0</v>
@@ -7533,52 +7533,52 @@
         <v>-0</v>
       </c>
       <c r="CM13" t="n">
-        <v>-0.1190939083310032</v>
+        <v>-0.02310266060706646</v>
       </c>
       <c r="CN13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CO13" t="n">
         <v>-0</v>
       </c>
       <c r="CP13" t="n">
-        <v>-0.1831095612068416</v>
+        <v>-0.08804552791641454</v>
       </c>
       <c r="CQ13" t="n">
-        <v>-0.1365343490239556</v>
+        <v>-0.110088098134519</v>
       </c>
       <c r="CR13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT13" t="n">
         <v>-0</v>
       </c>
       <c r="CU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV13" t="n">
-        <v>-0.1436584937817455</v>
+        <v>-0.03393015305738623</v>
       </c>
       <c r="CW13" t="n">
         <v>-0</v>
       </c>
       <c r="CX13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY13" t="n">
-        <v>0.08688562521256492</v>
+        <v>-0.0008907786236073337</v>
       </c>
       <c r="CZ13" t="n">
-        <v>-0.06129405615433278</v>
+        <v>-0.02281371974151053</v>
       </c>
       <c r="DA13" t="n">
         <v>-0</v>
       </c>
       <c r="DB13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC13" t="n">
         <v>-0</v>
@@ -7587,19 +7587,19 @@
         <v>0</v>
       </c>
       <c r="DE13" t="n">
-        <v>-0.01576298094390292</v>
+        <v>-0.01644754394797067</v>
       </c>
       <c r="DF13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.121814489267723</v>
+        <v>0.05048212356975044</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.2577563452075199</v>
+        <v>-0.02051766036843681</v>
       </c>
       <c r="DJ13" t="n">
         <v>0</v>
@@ -7608,40 +7608,40 @@
         <v>-0</v>
       </c>
       <c r="DL13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN13" t="n">
-        <v>0.03278715914999579</v>
+        <v>-0.02722314561728139</v>
       </c>
       <c r="DO13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.01226338640858615</v>
+        <v>0.04298152625656107</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.05646619183856883</v>
+        <v>-0.0806404147873814</v>
       </c>
       <c r="DS13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT13" t="n">
         <v>-0</v>
       </c>
       <c r="DU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV13" t="n">
         <v>0</v>
       </c>
       <c r="DW13" t="n">
-        <v>-0.03128809006614375</v>
+        <v>-0.03257304599443057</v>
       </c>
       <c r="DX13" t="n">
         <v>-0</v>
@@ -7650,16 +7650,16 @@
         <v>0</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.0122232766759236</v>
+        <v>-0.02529879863495213</v>
       </c>
       <c r="EA13" t="n">
-        <v>-0.1121811968036669</v>
+        <v>-0.02625557313327651</v>
       </c>
       <c r="EB13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED13" t="n">
         <v>-0</v>
@@ -7668,22 +7668,22 @@
         <v>0</v>
       </c>
       <c r="EF13" t="n">
-        <v>-0.267497256858211</v>
+        <v>-0.04044317446478148</v>
       </c>
       <c r="EG13" t="n">
         <v>0</v>
       </c>
       <c r="EH13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.1531667923978252</v>
+        <v>0.007708190090731034</v>
       </c>
       <c r="EJ13" t="n">
-        <v>-0.02644255161083225</v>
+        <v>0.0003386619923779457</v>
       </c>
       <c r="EK13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL13" t="n">
         <v>-0</v>
@@ -7695,25 +7695,25 @@
         <v>-0</v>
       </c>
       <c r="EO13" t="n">
-        <v>0.001897438125642738</v>
+        <v>-0.01321517887660108</v>
       </c>
       <c r="EP13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EQ13" t="n">
         <v>-0</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.019937620494026</v>
+        <v>0.03128069370996575</v>
       </c>
       <c r="ES13" t="n">
-        <v>-0.07883529501873635</v>
+        <v>-0.003428998992835393</v>
       </c>
       <c r="ET13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV13" t="n">
         <v>0</v>
@@ -7722,25 +7722,25 @@
         <v>-0</v>
       </c>
       <c r="EX13" t="n">
-        <v>-0.1493328576674757</v>
+        <v>-0.03639238685186365</v>
       </c>
       <c r="EY13" t="n">
         <v>0</v>
       </c>
       <c r="EZ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA13" t="n">
-        <v>0.1031212123067739</v>
+        <v>-0.0113809565257668</v>
       </c>
       <c r="FB13" t="n">
-        <v>-0.06263966360611653</v>
+        <v>-0.03716757278751184</v>
       </c>
       <c r="FC13" t="n">
         <v>0</v>
       </c>
       <c r="FD13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE13" t="n">
         <v>0</v>
@@ -7749,49 +7749,49 @@
         <v>-0</v>
       </c>
       <c r="FG13" t="n">
-        <v>0.165050772376276</v>
+        <v>0.003017483390739973</v>
       </c>
       <c r="FH13" t="n">
         <v>0</v>
       </c>
       <c r="FI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.2025957049590585</v>
+        <v>0.01287067936438947</v>
       </c>
       <c r="FK13" t="n">
-        <v>-0.0137963686388023</v>
+        <v>-0.1174590351351823</v>
       </c>
       <c r="FL13" t="n">
         <v>0</v>
       </c>
       <c r="FM13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO13" t="n">
         <v>-0</v>
       </c>
       <c r="FP13" t="n">
-        <v>-0.03812989954234709</v>
+        <v>0.01251937648941016</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS13" t="n">
-        <v>0.1989731294220011</v>
+        <v>0.002720114583213521</v>
       </c>
       <c r="FT13" t="n">
-        <v>-0.04114386271250747</v>
+        <v>0.050405139684634</v>
       </c>
       <c r="FU13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV13" t="n">
         <v>0</v>
@@ -7803,39 +7803,39 @@
         <v>-0</v>
       </c>
       <c r="FY13" t="n">
-        <v>0.1037715907624283</v>
+        <v>0.02383870342904908</v>
       </c>
       <c r="FZ13" t="n">
         <v>0</v>
       </c>
       <c r="GA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB13" t="n">
-        <v>-0.001368475683718781</v>
+        <v>-0.02429374442759327</v>
       </c>
       <c r="GC13" t="n">
         <v>0</v>
       </c>
       <c r="GD13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF13" t="n">
         <v>0</v>
       </c>
       <c r="GG13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -7859,10 +7859,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -7886,10 +7886,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -7913,10 +7913,10 @@
         <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -7940,10 +7940,10 @@
         <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM14" t="n">
         <v>0</v>
@@ -7967,10 +7967,10 @@
         <v>0</v>
       </c>
       <c r="AT14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV14" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="BC14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE14" t="n">
         <v>0</v>
@@ -8021,10 +8021,10 @@
         <v>0</v>
       </c>
       <c r="BL14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN14" t="n">
         <v>0</v>
@@ -8048,10 +8048,10 @@
         <v>0</v>
       </c>
       <c r="BU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW14" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="CD14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF14" t="n">
         <v>0</v>
@@ -8102,10 +8102,10 @@
         <v>0</v>
       </c>
       <c r="CM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO14" t="n">
         <v>0</v>
@@ -8156,10 +8156,10 @@
         <v>0</v>
       </c>
       <c r="DE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG14" t="n">
         <v>0</v>
@@ -8183,10 +8183,10 @@
         <v>0</v>
       </c>
       <c r="DN14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP14" t="n">
         <v>0</v>
@@ -8210,10 +8210,10 @@
         <v>0</v>
       </c>
       <c r="DW14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY14" t="n">
         <v>0</v>
@@ -8237,10 +8237,10 @@
         <v>0</v>
       </c>
       <c r="EF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH14" t="n">
         <v>0</v>
@@ -8264,10 +8264,10 @@
         <v>0</v>
       </c>
       <c r="EO14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ14" t="n">
         <v>0</v>
@@ -8291,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="EX14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ14" t="n">
         <v>0</v>
@@ -8401,10 +8401,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -8428,10 +8428,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -8455,10 +8455,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -8482,10 +8482,10 @@
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -8509,10 +8509,10 @@
         <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM15" t="n">
         <v>0</v>
@@ -8536,10 +8536,10 @@
         <v>0</v>
       </c>
       <c r="AT15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV15" t="n">
         <v>0</v>
@@ -8563,10 +8563,10 @@
         <v>0</v>
       </c>
       <c r="BC15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE15" t="n">
         <v>0</v>
@@ -8590,10 +8590,10 @@
         <v>0</v>
       </c>
       <c r="BL15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN15" t="n">
         <v>0</v>
@@ -8617,10 +8617,10 @@
         <v>0</v>
       </c>
       <c r="BU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW15" t="n">
         <v>0</v>
@@ -8644,10 +8644,10 @@
         <v>0</v>
       </c>
       <c r="CD15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF15" t="n">
         <v>0</v>
@@ -8671,10 +8671,10 @@
         <v>0</v>
       </c>
       <c r="CM15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO15" t="n">
         <v>0</v>
@@ -8725,10 +8725,10 @@
         <v>0</v>
       </c>
       <c r="DE15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG15" t="n">
         <v>0</v>
@@ -8752,10 +8752,10 @@
         <v>0</v>
       </c>
       <c r="DN15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP15" t="n">
         <v>0</v>
@@ -8779,10 +8779,10 @@
         <v>0</v>
       </c>
       <c r="DW15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY15" t="n">
         <v>0</v>
@@ -8806,10 +8806,10 @@
         <v>0</v>
       </c>
       <c r="EF15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH15" t="n">
         <v>0</v>
@@ -8833,10 +8833,10 @@
         <v>0</v>
       </c>
       <c r="EO15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ15" t="n">
         <v>0</v>
@@ -8860,10 +8860,10 @@
         <v>0</v>
       </c>
       <c r="EX15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ15" t="n">
         <v>0</v>
